--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phong\OneDrive\Máy tính\datn\git\datn\mockupData_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739CE083-E424-4740-88A7-EB656EB4B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C9617-EE04-4186-8160-0A95C0AD344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1675,11 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>100</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>114</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>137</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>168</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>177</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>189</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>209</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>223</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>233</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>244</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>257</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>287</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>314</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>320</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>327</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>344</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>354</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>373</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>388</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>398</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>416</v>
       </c>
@@ -4231,15 +4230,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:M42" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Anh chị"/>
-        <filter val="Họ hàng"/>
-        <filter val="Ông bà"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="K1:M42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -456,127 +456,127 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Năm sinh</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Giới tính</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dân tộc</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ngày vào trường</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Địa chỉ</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Trạng thái</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cha</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mẹ</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Quan hệ khác</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Họ tên cha</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh cha</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại cha</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp cha</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Họ tên mẹ</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh mẹ</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại mẹ</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp mẹ</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Họ tên quan hệ khác</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh quan hệ khác</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại quan hệ khác</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp quan hệ khác</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Năm học</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Khối</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Lớp</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Năm sinh</t>
         </is>
       </c>
     </row>
@@ -585,52 +585,52 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hà Hồng</t>
+          <t>Dương Quốc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>10/25/2004</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ngái</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0938405830</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>0701325887</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -638,52 +638,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Họ hàng</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Mai Nghiêm Hồng</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>06/03/1994</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0892597504</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Hoàng Tiêu Thành</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>04/16/1979</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0319050110</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -692,47 +692,47 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hà Thị</t>
+          <t>Đoàn Quốc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>01/30/2001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Khmer</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/30/2024</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0343115623</t>
+          <t>09/23/2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bắc Kạn</t>
+          <t>0370829077</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -742,10 +742,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Anh chị</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -753,44 +757,40 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Phạm Thi Hữu</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>05/07/1981</t>
+          <t>Nguyễn Hà Thành</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0302568703</t>
+          <t>07/28/1984</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>0924262164</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Giáo viên</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>12/09/2002</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nghiêm Quốc</t>
+          <t>Thi Quốc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -809,42 +809,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>11/18/2005</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/19/2024</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0974406423</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>0777605479</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -852,52 +852,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Họ hàng</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Lê Thi Văn</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>11/16/1965</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0887089780</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Mai Tiêu Đức</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>04/27/1964</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0311089639</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Lập trình viên</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>03/04/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -906,52 +906,52 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Hứa Thành</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>06/09/2002</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Khơ Mú</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0302124625</t>
+          <t>09/08/2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>0939034353</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -959,52 +959,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Họ hàng</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Lê Đỗ Hữu</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08/09/1955</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0876918966</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bùi Từ Hồng</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>10/14/1964</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0710058766</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>07/22/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1013,47 +1013,47 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chu Đức</t>
+          <t>Phí Thành</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>07/31/2003</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hoa</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/13/2024</t>
+          <t>Brâu</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0829359440</t>
+          <t>09/21/2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>0387791548</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1063,10 +1063,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Anh chị</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1074,44 +1078,40 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Phạm Đinh Hữu</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>04/15/1981</t>
+          <t>Mai Quách Minh</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0997300369</t>
+          <t>07/02/1962</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>0354701182</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Kiểm toán</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>09/27/2004</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lương Hồng</t>
+          <t>Quách Hữu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1130,95 +1130,95 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>10/13/2000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dao</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0725484431</t>
+          <t>09/24/2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>0376926390</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Vũ Trịnh Văn</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>10/05/1958</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0806137410</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Nguyễn Tạ Quốc</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>05/05/1993</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0988162037</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Nhân viên kinh doanh</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>04/27/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1227,49 +1227,49 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phí Thành</t>
+          <t>Quách Đức</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>08/08/2004</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0879235525</t>
+          <t>09/09/2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bình Định</t>
+          <t>0929834659</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1277,55 +1277,71 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Thành</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>02/13/1962</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0340922712</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Hoàng Sơn Hồng</t>
+          <t>Tester</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/25/1972</t>
+          <t>Mai Vương Thị</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0713702561</t>
+          <t>02/04/1991</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+          <t>0798051328</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>07/10/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1350,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hứa Thị</t>
+          <t>Vương Thành</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1344,37 +1360,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>12/20/2000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bố Y</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/23/2024</t>
+          <t>Cơ Ho</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0718914864</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>0398301279</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1389,50 +1405,50 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Bùi Hứa Đức</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>07/08/1971</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0774766842</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Vũ Trịnh Thành</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>08/03/1977</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0705810562</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Thợ xây</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>07/11/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1441,52 +1457,52 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phùng Thành</t>
+          <t>Nghiêm Thành</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>08/28/1999</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0718241558</t>
+          <t>08/30/2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>0947964699</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1496,66 +1512,50 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Bùi Uông Văn</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>05/07/1966</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0743086813</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Hoàng Đinh Minh</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>11/05/1987</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0346750945</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Nhà phân tích dữ liệu</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Mai Ngô Thành</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>03/03/1975</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0912106697</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>01/22/2001</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Quách Văn</t>
+          <t>Đào Thị</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1574,37 +1574,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>07/17/2001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/20/2024</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0952795351</t>
+          <t>09/14/2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Lạng Sơn</t>
+          <t>0992168480</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Bình Định</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1614,55 +1614,71 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lê Thạch Đức</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>08/09/1967</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0834634875</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Hoàng Lương Hồng</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>03/17/1985</t>
+          <t>Bùi Trịnh Văn</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0853869529</t>
+          <t>10/24/1961</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>0894785849</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Chuyên viên bán hàng trực tuyến</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>03/01/2004</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1671,47 +1687,47 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Trịnh Minh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>09/15/2005</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cờ Lao</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0737830956</t>
+          <t>09/03/2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>0981799753</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1726,50 +1742,50 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Đặng Uông Hồng</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>12/14/1968</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0951854644</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Dương Đoàn Thị</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>02/16/1988</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0797654058</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>04/29/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1778,121 +1794,121 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Đức</t>
+          <t>Đinh Hữu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>03/08/1999</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/28/2024</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0998401081</t>
+          <t>08/29/2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Nghệ An</t>
+          <t>0978489717</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Yên Bái</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Lê Tạ Quốc</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10/06/1956</t>
+          <t>Bùi Tạ Thị</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0865679870</t>
+          <t>01/12/1965</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>0755557963</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Đặng Phùng Đình</t>
+          <t>Lập trình viên</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12/28/1968</t>
+          <t>Bùi Khương Đức</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0742149022</t>
+          <t>12/02/1975</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
+          <t>0358410013</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Nhà báo</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>08/09/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -1901,105 +1917,121 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đào Thành</t>
+          <t>Đỗ Đức</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>09/30/1998</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Khmer</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0336042937</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>0774456003</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Thái Bình</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Phạm Vương Minh</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>03/03/1961</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0736070504</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Nhà tư vấn tài chính</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Lê Chu Thành</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>12/17/1955</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0314808748</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Hoàng Đinh Văn</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>02/03/1956</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0369663830</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>12/06/2005</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2008,47 +2040,47 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Đinh Đình</t>
+          <t>Tạ Hữu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>11/15/2005</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/31/2024</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0890991479</t>
+          <t>09/24/2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bắc Kạn</t>
+          <t>0788563471</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Hà Nội</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2058,55 +2090,71 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Trần Trịnh Thành</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>09/23/1994</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0829583493</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Dương Hồ Đình</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>09/13/1972</t>
+          <t>Phạm Thái Văn</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0708318451</t>
+          <t>09/28/1962</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
+          <t>0850359176</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>06/22/2001</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2163,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tiêu Thành</t>
+          <t>Tiêu Thị</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2125,37 +2173,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>05/13/2004</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/13/2024</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0986751655</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>0883043314</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Phú Thọ</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2165,55 +2213,55 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Bùi Đoàn Hồng</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>06/03/1975</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0318963079</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Mai Khương Hồng</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>04/25/1992</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0747836664</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>11/07/1998</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2270,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Khương Thành</t>
+          <t>Hà Hồng</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2232,95 +2280,95 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>05/14/2002</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ro Mam</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/26/2024</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0847332193</t>
+          <t>09/17/2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>0957499167</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Nguyễn Trịnh Văn</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/26/1974</t>
+          <t>Mai Uông Đình</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0308150990</t>
+          <t>06/16/1993</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
+          <t>0769652929</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>12/22/2001</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2329,47 +2377,47 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trịnh Đức</t>
+          <t>Uông Minh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0996487399</t>
+          <t>08/29/2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>0314335918</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2379,55 +2427,55 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Mai Lý Thị</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>06/10/1963</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0725708656</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>08/28/1963</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0881637536</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Giáo viên</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>11/11/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2436,105 +2484,121 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thạch Đức</t>
+          <t>Sơn Thị</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>08/30/2001</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cờ Lao</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>Brâu</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0936729471</t>
+          <t>09/04/2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>0778745463</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Đồng Nai</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Mai Trương Văn</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10/07/1973</t>
+          <t>Dương Huỳnh Minh</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0774843508</t>
+          <t>10/21/1953</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+          <t>0792802645</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lê Đinh Hữu</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>10/06/1980</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0701563086</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>12/16/2001</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2543,105 +2607,105 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hà Hữu</t>
+          <t>Lưu Đình</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>07/04/2001</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0919891398</t>
+          <t>09/22/2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>0387364848</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Trần Khương Thành</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>02/11/1957</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0928681992</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Vũ Quách Văn</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>10/22/1962</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0375381942</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>12/07/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2650,52 +2714,52 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Tiêu Thành</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>09/11/1999</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Chứt</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>Hrê</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0309742835</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>0331877287</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2703,52 +2767,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Họ hàng</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Phạm Đoàn Văn</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>03/30/1986</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0994691516</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Nhân viên kinh doanh</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Dương Đào Quốc</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>04/17/1959</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0311819914</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Lập trình viên</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>08/20/2004</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2757,121 +2821,121 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Uông Hồng</t>
+          <t>Bạch Hữu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>09/16/2002</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Ngái</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0333448616</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>0712721608</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>Thừa Thiên Huế</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Nguyễn Đinh Hữu</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>07/28/1977</t>
+          <t>Phạm Đào Minh</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0970127914</t>
+          <t>05/26/1983</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Digital Marketer</t>
+          <t>0367710608</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Trần Thạch Đình</t>
+          <t>Điều Dưỡng</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/30/1982</t>
+          <t>Đặng Hứa Quốc</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0948426937</t>
+          <t>11/22/1973</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
+          <t>0383545831</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>12/09/2004</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2880,47 +2944,47 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vương Văn</t>
+          <t>Hứa Thị</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>04/08/2006</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/14/2024</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0767606573</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>0366386617</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2930,10 +2994,14 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Anh chị</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2941,44 +3009,40 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Dương Đỗ Minh</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>03/18/1975</t>
+          <t>Dương Vương Thành</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0771691882</t>
+          <t>06/13/1955</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>0321364655</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>08/06/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -2987,54 +3051,54 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Đặng Hồng</t>
+          <t>Phan Thị</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>10/23/1998</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chăm</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/08/2024</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0900711916</t>
+          <t>09/15/2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>0706290606</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>Không</t>
@@ -3042,66 +3106,50 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Dương Ngô Minh</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>05/19/1967</t>
+          <t>Phạm Đoàn Hồng</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0763975318</t>
+          <t>05/10/1981</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
+          <t>0385802998</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Mai Đinh Đình</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>02/10/1973</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0855271494</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
+          <t>Nhà phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>10/19/2003</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3110,54 +3158,54 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Thái Thị</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0708831975</t>
+          <t>09/19/2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Hà Nam</t>
+          <t>0818916427</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>Không</t>
@@ -3165,66 +3213,50 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Đặng Mai Quốc</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>03/02/1969</t>
+          <t>Đặng Đào Đình</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0718315937</t>
+          <t>01/04/1987</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Kỹ sư phần mềm</t>
+          <t>0703777658</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Đặng Bạch Thành</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>05/19/1987</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0754255332</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>12/16/2001</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3233,54 +3265,54 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Từ Thị</t>
+          <t>Chu Đức</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>09/24/2002</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Chứt</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>09/18/2024</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0866183264</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Thừa Thiên Huế</t>
+          <t>0889680401</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>Không</t>
@@ -3288,66 +3320,50 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Nguyễn Tôn Minh</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>07/12/1960</t>
+          <t>Dương Thạch Thành</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0851944771</t>
+          <t>09/20/1974</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Kỹ sư xây dựng</t>
+          <t>0776264378</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Trần Phí Đức</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>01/11/1985</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0821995925</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>08/06/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3356,105 +3372,121 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quách Thành</t>
+          <t>Phùng Thành</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>03/26/2006</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/27/2024</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0859356342</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>0704907564</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Vũ Thạch Văn</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>01/31/1974</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0862536639</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Mai Đoàn Đình</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>02/20/1972</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0719486810</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Phạm Từ Quốc</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>08/22/1993</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0870283234</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>08/14/2002</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3495,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Đinh Hồng</t>
+          <t>Hà Văn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3473,111 +3505,95 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0336869996</t>
+          <t>09/15/2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>0753356710</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Tiền Giang</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Nguyễn Hà Thành</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>10/10/1965</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0918608430</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư phần mềm</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Hoàng Tiêu Quốc</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>01/02/1962</t>
+          <t>Hoàng Tôn Đức</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0851844426</t>
+          <t>10/27/1989</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
+          <t>0923179893</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>12/21/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3586,105 +3602,121 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hứa Đức</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>03/13/2005</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/22/2024</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0981727855</t>
+          <t>09/03/2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>0314558780</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Hữu</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>05/19/1991</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0897147905</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Nhân viên kinh doanh</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Trần Tôn Hữu</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>03/20/1963</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0870597602</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Hồng</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>06/17/1962</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>0376249058</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>04/11/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3693,121 +3725,105 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chu Thị</t>
+          <t>Phùng Hồng</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>10/23/2003</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0854537292</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>0385098553</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Bùi Trịnh Thành</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>08/30/1983</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0310265130</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Hoàng Tạ Hồng</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12/14/1978</t>
+          <t>Vũ Trịnh Quốc</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0988102185</t>
+          <t>06/09/1972</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Y tá</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
+          <t>0980497820</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>07/12/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3816,105 +3832,121 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tạ Đình</t>
+          <t>Hoàng Thị</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>06/30/2000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Ngái</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>Chu Ru</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0989497996</t>
+          <t>08/30/2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>0800538444</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Nguyễn Thạch Văn</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>03/22/1972</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0773873999</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Trần Sơn Thành</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>08/27/1958</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0324497913</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Vũ Thi Minh</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>07/14/1959</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>0954266325</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -3923,47 +3955,47 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Chu Thành</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>04/05/2001</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Rơ Măm</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/30/2024</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0859291088</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>0350565478</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3973,55 +4005,71 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Dương Nghiêm Quốc</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>01/23/1969</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0385239199</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Bùi Thi Thị</t>
+          <t>Kế toán</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01/13/1966</t>
+          <t>Lê Ngô Quốc</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0755723876</t>
+          <t>07/02/1982</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
+          <t>0372411319</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>08/01/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4030,47 +4078,47 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thi Đức</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>11/18/2003</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Ro Mam</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0913832318</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>0346663221</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4083,52 +4131,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Vũ Hứa Quốc</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>01/28/1968</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0351721299</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Hoàng Phùng Thành</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>12/29/1979</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0971164282</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>06/03/2003</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4185,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Thạch Hữu</t>
+          <t>Phạm Đình</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4147,39 +4195,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>03/24/2001</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/31/2024</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0877007083</t>
+          <t>09/24/2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Hưng Yên</t>
+          <t>0388041734</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>Không</t>
@@ -4187,10 +4235,14 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>Họ hàng</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -4198,44 +4250,40 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Phạm Trịnh Đình</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>07/06/1985</t>
+          <t>Mai Đào Hồng</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0851739756</t>
+          <t>02/10/1978</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
+          <t>0367333721</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>Tester</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>09/16/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4244,105 +4292,121 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Thi Thị</t>
+          <t>Đỗ Đức</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>10/23/1998</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Ra Glai</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0837813176</t>
+          <t>09/17/2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>0923240737</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Mai Quách Đức</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>06/28/1970</t>
+          <t>Hoàng Tiêu Thành</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0970694120</t>
+          <t>11/17/1986</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+          <t>0347442614</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Vũ Võ Đình</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>07/09/1954</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0388765028</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>02/12/1999</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4351,105 +4415,105 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Phí Minh</t>
+          <t>Tăng Hữu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>03/05/2003</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Chứt</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0880738111</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>0342020054</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Dương Tiêu Minh</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>03/18/1955</t>
+          <t>Đặng Hà Hồng</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0786028498</t>
+          <t>05/15/1980</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
+          <t>0762811916</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>11/22/2005</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4458,54 +4522,54 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Thạch Đức</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>07/29/2004</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/20/2024</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0766894923</t>
+          <t>09/14/2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>0800153998</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>Không</t>
@@ -4513,66 +4577,50 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Hồng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>05/11/1960</t>
+          <t>Hoàng Dương Quốc</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0792423968</t>
+          <t>03/14/1982</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
+          <t>0765844953</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Hoàng Hà Hữu</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>10/08/1984</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0323775567</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Kỹ sư xây dựng</t>
-        </is>
-      </c>
+          <t>Thợ xây</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>04/04/2004</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4581,47 +4629,47 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Phùng Thành</t>
+          <t>Thái Thị</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>09/02/2005</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Si La</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0313029505</t>
+          <t>09/18/2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>0725799370</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Thôi học</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Đang học</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4634,52 +4682,52 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lê Phạm Hồng</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>06/28/1967</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0996780509</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Phạm Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>10/25/1967</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0982353284</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+          <t>Thực Tập</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>01/21/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4688,105 +4736,105 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Quách Hữu</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0879885455</t>
+          <t>09/21/2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>0809159631</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Dương Thi Hữu</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>02/20/1977</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0816266563</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Hoàng Đoàn Hồng</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>07/17/1983</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0360413814</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>10/10/2000</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4795,121 +4843,121 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nghiêm Văn</t>
+          <t>Tiêu Minh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>04/24/1999</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Xơ Đăng</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>Hrê</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0927886757</t>
+          <t>09/17/2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>0958312751</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Nghỉ học</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>Đang học</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Mai Trương Hồng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>05/14/1954</t>
+          <t>Dương Đào Hữu</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0773649373</t>
+          <t>02/28/1974</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>0734808724</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Phạm Đào Quốc</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>09/27/1965</t>
+          <t>Bùi Trương Thị</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0972966831</t>
+          <t>02/17/1974</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr"/>
+          <t>0935574155</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Chuyên viên bán hàng trực tuyến</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>06/08/2006</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>
@@ -4918,54 +4966,54 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Uông Thành</t>
+          <t>Khương Minh</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>05/25/2004</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0704583003</t>
+          <t>09/18/2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>0853959572</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>Đang học</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
           <t>Không</t>
@@ -4973,66 +5021,50 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Mai Dương Thành</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>08/08/1958</t>
+          <t>Trần Quách Đức</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0946268638</t>
+          <t>12/16/1984</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Nhân viên khách sạn</t>
+          <t>0338096311</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Trần Hà Đức</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>01/11/1957</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0759029142</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Kiến trúc sư phần mềm</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>1A2</t>
-        </is>
-      </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>1A1</t>
         </is>
       </c>
     </row>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,303 +441,307 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mã số học sinh</t>
+          <t>Năm học</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fist Name</t>
+          <t>Khối</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Lớp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Họ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tên</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Năm sinh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Giới tính</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dân tộc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ngày vào trường</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Địa chỉ</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Trạng thái</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cha</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mẹ</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quan hệ khác</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Họ tên cha</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh cha</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại cha</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp cha</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Họ tên mẹ</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh mẹ</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại mẹ</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp mẹ</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Họ tên quan hệ khác</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Năm sinh quan hệ khác</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại quan hệ khác</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Nghề nghiệp quan hệ khác</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Năm học</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Khối</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Lớp</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dương Quốc</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/25/2004</t>
+          <t>Uông Đình</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>03/16/1999</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0701325887</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0850884960</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Bùi Chu Hữu</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>08/13/1959</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0718452336</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Vũ Chu Hữu</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>03/02/1994</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0940162254</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Hoàng Tiêu Thành</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>04/16/1979</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0319050110</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Thợ xây</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đoàn Quốc</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/30/2001</t>
+          <t>Đinh Đức</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Vũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01/09/2005</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Ra Glai</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>09/23/2024</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0370829077</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>09/04/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0740497042</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Bến Tre</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -747,10 +751,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Họ hàng</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -758,93 +766,83 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hà Thành</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>07/28/1984</t>
+          <t>Hoàng Ngô Đình</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0924262164</t>
+          <t>07/13/1956</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Giáo viên</t>
+          <t>0838043827</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thi Quốc</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11/18/2005</t>
+          <t>Phùng Đức</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>04/29/2001</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0777605479</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>08/31/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0935849788</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -854,10 +852,14 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Ông bà</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -865,93 +867,83 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Mai Tiêu Đức</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>04/27/1964</t>
+          <t>Đặng Tôn Văn</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0311089639</t>
+          <t>02/19/1968</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Lập trình viên</t>
+          <t>0892304084</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Biên dịch viên</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hứa Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>Phùng Đình</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>07/06/2002</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Lào</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>09/08/2024</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0939034353</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0837625315</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -961,211 +953,199 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Bùi Lưu Thành</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>12/27/1963</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0847051460</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Bùi Từ Hồng</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>10/14/1964</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0710058766</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phí Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07/31/2003</t>
+          <t>Vũ Văn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Lê</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>03/04/2001</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Brâu</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>09/21/2024</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0387791548</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>08/31/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0846296996</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Phạm Quách Thành</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>04/15/1972</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0867511888</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Mai Quách Minh</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>07/02/1962</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0354701182</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Quách Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1A1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Thạch Thị</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Dương</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10/13/2000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>08/16/2005</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09/24/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0376926390</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>09/20/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0320767897</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Lạng Sơn</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1180,329 +1160,311 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Văn</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10/05/1958</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0806137410</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Mai Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>01/12/1993</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0825487073</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Quách Đức</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08/08/2004</t>
+          <t>Tiêu Thị</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Trần</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>06/15/2002</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Khmer</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0929834659</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0787396747</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Phạm Đinh Thành</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>02/13/1962</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0340922712</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Mai Vương Thị</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>02/04/1991</t>
+          <t>Phạm Vương Đức</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0798051328</t>
+          <t>11/28/1989</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>0311043011</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vương Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12/20/2000</t>
+          <t>Hứa Đình</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Hoàng</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>05/08/2005</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Cơ Ho</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>09/12/2024</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0398301279</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>09/14/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0906953239</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Bùi Đinh Văn</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>05/11/1989</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0717414275</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Nguyễn Đoàn Hồng</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>12/02/1970</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0947085171</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Thành</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>08/03/1977</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0705810562</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Kiến trúc sư</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nghiêm Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08/28/1999</t>
+          <t>Vũ Đình</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08/30/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0947964699</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>09/22/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0969669052</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1512,462 +1474,422 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Mai Đinh Thành</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>01/28/1975</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0905346741</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Mai Ngô Thành</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>03/03/1975</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0912106697</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Đào Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07/17/2001</t>
+          <t>Hứa Hữu</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Trần</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>08/19/2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Ngái</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>09/14/2024</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0992168480</t>
+          <t>Xtiêng</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bình Định</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0722582860</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Bến Tre</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Lê Thạch Đức</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>08/09/1967</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0834634875</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Bùi Trịnh Văn</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>10/24/1961</t>
+          <t>Dương Vương Thị</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0894785849</t>
+          <t>09/26/1959</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
+          <t>0310191746</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trịnh Minh</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09/15/2005</t>
+          <t>Lý Đình</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>03/15/2002</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0981799753</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0311195657</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Nam Định</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vũ Lý Quốc</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12/03/1965</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0912853776</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Dương Đoàn Thị</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>02/16/1988</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0797654058</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Đinh Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>03/08/1999</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>03/21/2005</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0978489717</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Yên Bái</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0738880098</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Bùi Tạ Thị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>01/12/1965</t>
+          <t>Dương Huỳnh Văn</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0755557963</t>
+          <t>11/09/1975</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Lập trình viên</t>
+          <t>0765791557</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Bùi Khương Đức</t>
+          <t>Nhân viên kinh doanh</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>12/02/1975</t>
+          <t>Trần Hà Hữu</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0358410013</t>
+          <t>03/04/1991</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Nhà báo</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr"/>
+          <t>0383330320</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đỗ Đức</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09/30/1998</t>
+          <t>Vũ Văn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>06/23/2006</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0774456003</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Thái Bình</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0359759296</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1977,452 +1899,396 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Phạm Vương Minh</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>03/03/1961</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0736070504</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Lê Chu Thành</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>12/17/1955</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0314808748</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Trần Uông Thị</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>03/06/1976</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0371629853</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Tư vấn khách hàng</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tạ Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11/15/2005</t>
+          <t>Thạch Đức</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>04/28/2003</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09/24/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0788563471</t>
+          <t>Chu Ru</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hà Nội</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0811906937</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Trần Trịnh Thành</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>09/23/1994</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0829583493</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Phạm Thái Văn</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>09/28/1962</t>
+          <t>Phạm Hà Văn</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0850359176</t>
+          <t>02/14/1976</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>0900469863</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>05/13/2004</t>
+          <t>Đặng Hồng</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Dương</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>03/20/1999</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Cống</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>09/12/2024</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0883043314</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Phú Thọ</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0732125029</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Bùi Đoàn Hồng</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>06/03/1975</t>
+          <t>Phạm Phan Quốc</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0318963079</t>
+          <t>05/04/1985</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>0800023956</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hà Hồng</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>05/14/2002</t>
+          <t>Đinh Quốc</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Trần</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>09/06/2002</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Lô Lô</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>09/17/2024</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0957499167</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>09/18/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0806416690</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Mai Uông Đình</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>06/16/1993</t>
+          <t>Phạm Từ Đức</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0769652929</t>
+          <t>09/22/1981</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>0879880570</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Uông Minh</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>Phí Đình</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>09/23/2001</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0314335918</t>
+          <t>La Chí</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0727032680</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2435,224 +2301,212 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Bùi Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>10/07/1988</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0752871644</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Mai Lý Thị</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>06/10/1963</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0725708656</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sơn Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08/30/2001</t>
+          <t>Nguyễn Đình</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Brâu</t>
+          <t>02/03/2005</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09/04/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0778745463</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0722170680</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Dương Huỳnh Minh</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>10/21/1953</t>
+          <t>Phạm Thái Minh</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0792802645</t>
+          <t>04/19/1972</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
+          <t>0796058662</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Lê Đinh Hữu</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>10/06/1980</t>
+          <t>Lê Vương Đức</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0701563086</t>
+          <t>03/03/1990</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>0367235852</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lưu Đình</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07/04/2001</t>
+          <t>Vũ Quốc</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>07/23/2000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Cống</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>09/22/2024</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0387364848</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Gia Lai</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0916715361</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Đà Nẵng</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2667,99 +2521,93 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Trần Khương Thành</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>02/11/1957</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0928681992</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Đặng Sơn Thành</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>10/16/1972</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0995933708</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Nông dân</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiêu Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09/11/1999</t>
+          <t>Trương Văn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Lê</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10/09/2005</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Hrê</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>09/16/2024</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0331877287</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>09/15/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0389667311</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Bến Tre</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2769,111 +2617,105 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Phạm Thái Hữu</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>10/13/1969</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0805050973</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Dương Đào Quốc</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>04/17/1959</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0311819914</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bạch Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09/16/2002</t>
+          <t>Tôn Minh</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>03/01/2004</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0712721608</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Thừa Thiên Huế</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0945554947</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Không</t>
@@ -2881,329 +2723,311 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Phạm Đào Minh</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>05/26/1983</t>
+          <t>Hoàng Trịnh Văn</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0367710608</t>
+          <t>12/31/1991</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>0834616277</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Đặng Hứa Quốc</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>11/22/1973</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0383545831</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hứa Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>04/08/2006</t>
+          <t>Tô Thành</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>10/21/1999</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0366386617</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0350847512</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Cà Mau</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Vũ Uông Văn</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>12/17/1954</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0711763937</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Dương Vương Thành</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>06/13/1955</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>0321364655</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phan Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10/23/1998</t>
+          <t>Đinh Minh</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>04/17/2000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0706290606</t>
+          <t>Xtiêng</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cao Bằng</t>
+          <t>09/05/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0366102702</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>Bến Tre</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Phạm Đoàn Hồng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>05/10/1981</t>
+          <t>Đặng Khương Đức</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0385802998</t>
+          <t>07/27/1969</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nhà phân tích dữ liệu</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+          <t>0889711614</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Trần Phí Minh</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>05/04/1977</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0763446114</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Thợ xây</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Thái Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>Đinh Đình</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Bùi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>04/15/2006</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Nùng</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>09/19/2024</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0818916427</t>
+          <t>Cơ Ho</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Bắc Kạn</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0864930083</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3218,443 +3042,435 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Đặng Đào Đình</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>01/04/1987</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0703777658</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Mai Hoàng Đình</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>10/13/1965</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0775883247</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Luật sư</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Chu Đức</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09/24/2002</t>
+          <t>Tạ Quốc</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>01/29/2004</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0889680401</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0812096351</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Dương Thạch Thành</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>09/20/1974</t>
+          <t>Đặng Quách Quốc</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0776264378</t>
+          <t>07/27/1962</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>0787163175</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Đặng Khương Quốc</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>01/23/1960</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0332734670</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Phùng Thành</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>03/26/2006</t>
+          <t>Chu Hữu</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>06/29/2004</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09/06/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0704907564</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Lai Châu</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0822500420</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Vũ Thạch Văn</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>01/31/1974</t>
+          <t>Phạm Quách Thành</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0862536639</t>
+          <t>06/26/1968</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
+          <t>0720659164</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Mai Đoàn Đình</t>
+          <t>Kiểm toán</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>02/20/1972</t>
+          <t>Trần Đinh Văn</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0719486810</t>
+          <t>04/27/1958</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>0718565550</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hà Văn</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>Võ Văn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>08/16/2000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0753356710</t>
+          <t>M nông</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Tiền Giang</t>
+          <t>09/18/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0814981602</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Hoàng Tôn Đức</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>10/27/1989</t>
+          <t>Dương Võ Văn</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0923179893</t>
+          <t>04/12/1991</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>0338898595</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quách Quốc</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>03/13/2005</t>
+          <t>Lý Văn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>04/17/1999</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0314558780</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0897056683</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Không</t>
@@ -3662,468 +3478,412 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Nguyễn Trịnh Hữu</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>05/19/1991</t>
+          <t>Mai Đào Hữu</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0897147905</t>
+          <t>06/16/1964</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Nhân viên kinh doanh</t>
+          <t>0822095475</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Trần Tôn Hữu</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>03/20/1963</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0870597602</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Phùng Hồng</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10/23/2003</t>
+          <t>Đào Thành</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Nguyễn</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>05/16/2004</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>La Chi</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0385098553</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0378289501</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Vũ Trịnh Quốc</t>
-        </is>
-      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>06/09/1972</t>
+          <t>Mai Đào Thành</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0980497820</t>
+          <t>06/05/1958</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+          <t>0744894826</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hoàng Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>06/30/2000</t>
+          <t>Phan Thị</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Dương</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01/31/2006</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Chu Ru</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>08/30/2024</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0800538444</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>09/23/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0752476220</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Nguyễn Thạch Văn</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>03/22/1972</t>
+          <t>Lê Thạch Thành</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0773873999</t>
+          <t>02/15/1974</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>0313121789</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Trần Sơn Thành</t>
+          <t>Giáo viên</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>08/27/1958</t>
+          <t>Hoàng Vũ Quốc</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0324497913</t>
+          <t>07/04/1994</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>0812666480</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>Trịnh Hữu</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>07/13/2004</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0350565478</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>09/14/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0793300167</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Dương Nghiêm Quốc</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>01/23/1969</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0385239199</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Lê Ngô Quốc</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>07/02/1982</t>
+          <t>Bùi Đào Đức</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0372411319</t>
+          <t>05/30/1994</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>0896018046</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Nhà phân tích dữ liệu</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quách Quốc</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11/18/2003</t>
+          <t>Huỳnh Đức</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>07/29/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0346663221</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>09/09/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0962960642</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -4138,543 +3898,529 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Vũ Hứa Quốc</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>01/28/1968</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0351721299</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Phạm Thái Thành</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>05/22/1971</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0918717548</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Kỹ sư sản xuất</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phạm Đình</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>03/24/2001</t>
+          <t>Chu Thị</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Hoàng</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>12/06/2004</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Si La</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>09/24/2024</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0388041734</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Bình Định</t>
+          <t>09/21/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0936605635</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Lâm Đồng</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Bùi Hứa Thành</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>07/19/1992</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0869661611</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Mai Trịnh Hữu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>06/03/1989</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0367346737</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Mai Đào Hồng</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>02/10/1978</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>0367333721</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Đỗ Đức</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10/23/1998</t>
+          <t>Tôn Đức</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Bùi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>09/20/2003</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Nùng</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Ro Mam</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>09/17/2024</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0923240737</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Hòa Bình</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0329028946</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Hoàng Tiêu Thành</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>11/17/1986</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0347442614</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Vũ Võ Đình</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>07/09/1954</t>
+          <t>Dương Trịnh Văn</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0388765028</t>
+          <t>04/27/1977</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>0909869073</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tăng Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>03/05/2003</t>
+          <t>Đinh Quốc</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>03/13/1999</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0342020054</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0924758606</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Đặng Hà Hồng</t>
-        </is>
-      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>05/15/1980</t>
+          <t>Đặng Sơn Văn</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0762811916</t>
+          <t>11/27/1979</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>0934540271</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Thạch Đức</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>07/29/2004</t>
+          <t>Hà Đức</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Phạm</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>11/30/2004</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Ro Mam</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>09/14/2024</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0800153998</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>09/03/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0821525390</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Hoàng Dương Quốc</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>03/14/1982</t>
+          <t>Hoàng Vương Đình</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0765844953</t>
+          <t>02/06/1963</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+          <t>0727608499</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Vũ Tạ Đức</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>04/14/1973</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0982576491</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thái Thị</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09/02/2005</t>
+          <t>Hà Quốc</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>08/27/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0725799370</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0778215928</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4689,99 +4435,93 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lê Phạm Hồng</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>06/28/1967</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0996780509</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Dương Vương Hồng</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>10/10/1953</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0322417553</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Thợ xây</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Quách Hữu</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Bùi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>03/31/2003</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Hoa</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>09/21/2024</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0809159631</t>
+          <t>Sán Chay</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>09/15/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0927099421</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Tiền Giang</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4791,111 +4531,121 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Trần Quách Quốc</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>06/18/1990</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0790091345</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Hoàng Đoàn Hồng</t>
+          <t>Giáo viên</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>07/17/1983</t>
+          <t>Lê Tôn Đức</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0360413814</t>
+          <t>09/12/1966</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>0950251157</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tiêu Minh</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>04/24/1999</t>
+          <t>Khương Đức</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hrê</t>
+          <t>01/26/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09/17/2024</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0958312751</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0897601443</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>Không</t>
@@ -4903,115 +4653,93 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Dương Đào Hữu</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>02/28/1974</t>
+          <t>Trần Thạch Hồng</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0734808724</t>
+          <t>04/01/1994</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
+          <t>0853505586</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Bùi Trương Thị</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>02/17/1974</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0935574155</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
-        </is>
-      </c>
+          <t>Nhà phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>1A1</t>
-        </is>
-      </c>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Khương Minh</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>05/25/2004</t>
+          <t>Chu Đức</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>01/21/2000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0853959572</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Đang học</t>
+          <t>0727571601</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -5026,45 +4754,35 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Trần Quách Đức</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>12/16/1984</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0338096311</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư phần mềm</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Bùi Khương Văn</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>05/12/1976</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0391995346</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>1A1</t>
+          <t>Nông dân</t>
         </is>
       </c>
     </row>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,108 +584,92 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Uông Đình</t>
+          <t>Đào Đức</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/16/1999</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>09/17/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0850884960</t>
+          <t>0935853935</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Hà Nam</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Bùi Chu Hữu</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>08/13/1959</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0718452336</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Vũ Chu Hữu</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>03/02/1994</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0940162254</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Vũ Trần Quốc</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>12/26/1955</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0783959296</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -701,22 +685,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Đinh Đức</t>
+          <t>Thạch Đình</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -726,67 +710,83 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09/04/2024</t>
+          <t>09/21/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0740497042</t>
+          <t>0905412458</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Bến Tre</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Hoàng Ngô Đình</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>07/13/1956</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0838043827</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Phạm Trịnh Đình</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>02/10/1967</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0853592077</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dương Đoàn Hồng</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>08/18/1967</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0851547006</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -802,22 +802,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phùng Đức</t>
+          <t>Tôn Hồng</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04/29/2001</t>
+          <t>07/16/2006</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -827,22 +827,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>08/31/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0935849788</t>
+          <t>0362206472</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -870,22 +870,22 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Đặng Tôn Văn</t>
+          <t>Dương Đinh Đức</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>02/19/1968</t>
+          <t>02/20/1961</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0892304084</t>
+          <t>0870383060</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
+          <t>Điều Dưỡng</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phùng Đình</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>09/19/2006</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -928,27 +928,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>09/20/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0837625315</t>
+          <t>0883987305</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Long An</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -961,28 +961,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Bùi Thi Văn</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>06/25/1965</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0387472078</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Bùi Lưu Thành</t>
+          <t>Trần Lý Hữu</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/27/1963</t>
+          <t>04/08/1957</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0847051460</t>
+          <t>0343306901</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Kỹ sư giám sát</t>
+          <t>Thực Tập</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1004,47 +1020,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vũ Văn</t>
+          <t>Thi Thành</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/04/2001</t>
+          <t>03/21/2001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>08/31/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0846296996</t>
+          <t>0813046262</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Thừa Thiên Huế</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1064,22 +1080,22 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Phạm Quách Thành</t>
+          <t>Bùi Thạch Đình</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>04/15/1972</t>
+          <t>07/26/1970</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0867511888</t>
+          <t>0953588463</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Kỹ sư nông nghiệp</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1105,22 +1121,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thạch Thị</t>
+          <t>Tôn Hữu</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/16/2005</t>
+          <t>09/22/2000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1130,22 +1146,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>09/20/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0320767897</t>
+          <t>0940828625</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Lạng Sơn</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1160,7 +1176,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -1173,22 +1189,22 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Mai Trịnh Minh</t>
+          <t>Vũ Hoàng Thành</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>01/12/1993</t>
+          <t>04/25/1968</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0825487073</t>
+          <t>0902633593</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Trưởng phòng kinh doanh</t>
         </is>
       </c>
     </row>
@@ -1206,22 +1222,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>Hứa Thành</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>06/15/2002</t>
+          <t>12/14/1998</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1231,22 +1247,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Gia Rai</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09/06/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0787396747</t>
+          <t>0842594298</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1256,42 +1272,42 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Phạm Vương Đức</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>11/28/1989</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0311043011</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Hoàng Trịnh Thị</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>09/26/1980</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0914224251</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1307,22 +1323,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hứa Đình</t>
+          <t>Sơn Hữu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>04/30/2004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1332,77 +1348,61 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>09/14/2024</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0906953239</t>
+          <t>0857313705</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Bùi Đinh Văn</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>05/11/1989</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0717414275</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Hồng</t>
+          <t>Trần Phí Văn</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/02/1970</t>
+          <t>08/15/1978</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0947085171</t>
+          <t>0321545698</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Kiến trúc sư</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vũ Đình</t>
+          <t>Sơn Quốc</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>12/03/1999</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1449,22 +1449,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Chu Ru</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09/22/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0969669052</t>
+          <t>0764005568</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1474,42 +1474,42 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Mai Đinh Thành</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>01/28/1975</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0905346741</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Bùi Đào Quốc</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>03/17/1970</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0819802122</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1525,47 +1525,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hứa Hữu</t>
+          <t>Mai Thị</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08/19/2000</t>
+          <t>11/28/2001</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Xtiêng</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0722582860</t>
+          <t>0372180819</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Bến Tre</t>
+          <t>Đà Nẵng</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1589,22 +1589,22 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Dương Vương Thị</t>
+          <t>Mai Quách Đình</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>09/26/1959</t>
+          <t>09/06/1957</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0310191746</t>
+          <t>0338749977</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>Nông dân</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1626,47 +1626,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lý Đình</t>
+          <t>Trương Thành</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03/15/2002</t>
+          <t>06/11/2001</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Ê Đê</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0311195657</t>
+          <t>0739457416</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Nam Định</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1686,22 +1686,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vũ Lý Quốc</t>
+          <t>Phạm Đào Minh</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/03/1965</t>
+          <t>05/16/1991</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0912853776</t>
+          <t>0899926677</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Luật sư</t>
+          <t>Thực Tập</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1727,12 +1727,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Sơn Minh</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/21/2005</t>
+          <t>06/11/2000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1752,77 +1752,61 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Ê Đê</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0738880098</t>
+          <t>0813638623</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Dương Huỳnh Văn</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>11/09/1975</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0765791557</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Nhân viên kinh doanh</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Trần Hà Hữu</t>
+          <t>Mai Từ Văn</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>03/04/1991</t>
+          <t>01/24/1991</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0383330320</t>
+          <t>0779498988</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1844,47 +1828,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vũ Văn</t>
+          <t>Hoàng Hồng</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/23/2006</t>
+          <t>10/20/1999</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>09/06/2024</t>
+          <t>09/29/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0359759296</t>
+          <t>0726796542</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1894,42 +1878,42 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Trần Uông Thị</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>03/06/1976</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0371629853</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Tư vấn khách hàng</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Trần Nguyễn Thị</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>10/30/1977</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0352859536</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1945,22 +1929,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Thạch Đức</t>
+          <t>Lương Thị</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/28/2003</t>
+          <t>12/20/1999</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1970,7 +1954,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Chu Ru</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1980,17 +1964,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0811906937</t>
+          <t>0750274591</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2003,28 +1987,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Hoàng Hứa Đức</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>08/04/1985</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0951624806</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Phạm Hà Văn</t>
+          <t>Vũ Đinh Quốc</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/14/1976</t>
+          <t>05/07/1972</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0900469863</t>
+          <t>0390886271</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
+          <t>Nhân viên khách sạn</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -2046,22 +2046,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Đặng Hồng</t>
+          <t>Trần Quốc</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/20/1999</t>
+          <t>09/29/2001</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0732125029</t>
+          <t>0983934332</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Phạm Phan Quốc</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>05/04/1985</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0800023956</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Phạm Sơn Đức</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>04/06/1958</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0847369063</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2147,22 +2147,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Đinh Quốc</t>
+          <t>Hà Thị</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/06/2002</t>
+          <t>04/25/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0806416690</t>
+          <t>0866056539</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Gia Lai</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2205,30 +2205,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Phạm Từ Đức</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>09/22/1981</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0879880570</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Lê Nguyễn Quốc</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>10/07/1956</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0324321748</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -2248,22 +2248,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phí Đình</t>
+          <t>Uông Văn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/23/2001</t>
+          <t>03/01/2004</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2273,27 +2273,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0727032680</t>
+          <t>0728728202</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2303,37 +2303,37 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Bùi Trịnh Minh</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>10/07/1988</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0752871644</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Lê Khương Thị</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>07/07/1988</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0813791862</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -2349,22 +2349,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nguyễn Đình</t>
+          <t>Hứa Đức</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/03/2005</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2374,22 +2374,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Ê Đê</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0722170680</t>
+          <t>0720408602</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2409,42 +2409,42 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Phạm Thái Minh</t>
+          <t>Đặng Tôn Hữu</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>04/19/1972</t>
+          <t>05/12/1974</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0796058662</t>
+          <t>0379728629</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Quản lý sản xuất</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Lê Vương Đức</t>
+          <t>Mai Phí Hữu</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/03/1990</t>
+          <t>05/09/1990</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0367235852</t>
+          <t>0795949384</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>Chuyên viên bán hàng trực tuyến</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vũ Quốc</t>
+          <t>Nghiêm Hồng</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/23/2000</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>09/22/2024</t>
+          <t>10/03/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0916715361</t>
+          <t>0359534483</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2534,22 +2534,22 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Đặng Sơn Thành</t>
+          <t>Mai Khương Đình</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>10/16/1972</t>
+          <t>02/18/1972</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0995933708</t>
+          <t>0329164887</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Nông dân</t>
+          <t>Kỹ sư nông nghiệp</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trương Văn</t>
+          <t>Đào Hồng</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/09/2005</t>
+          <t>02/01/2000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2592,27 +2592,27 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>09/21/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0389667311</t>
+          <t>0701897310</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Bến Tre</t>
+          <t>Bắc Ninh</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2625,28 +2625,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Nguyễn Lương Hữu</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>07/03/1977</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0804202278</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Phạm Thái Hữu</t>
+          <t>Phạm Tạ Văn</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>10/13/1969</t>
+          <t>11/13/1967</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0805050973</t>
+          <t>0382547327</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Kỹ sư xây dựng</t>
+          <t>Trưởng phòng kinh doanh</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2668,47 +2684,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Vương Hữu</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/01/2004</t>
+          <t>01/26/2001</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0945554947</t>
+          <t>0733201931</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2728,22 +2744,22 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Hoàng Trịnh Văn</t>
+          <t>Lê Hoàng Quốc</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/31/1991</t>
+          <t>10/21/1966</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0834616277</t>
+          <t>0963947872</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2769,22 +2785,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tô Thành</t>
+          <t>Phan Văn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/21/1999</t>
+          <t>08/10/1999</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2794,22 +2810,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>09/17/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0350847512</t>
+          <t>0758956176</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2819,7 +2835,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2829,28 +2845,44 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Vũ Uông Văn</t>
+          <t>Phạm Chu Thị</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/17/1954</t>
+          <t>03/30/1978</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0711763937</t>
+          <t>0798167060</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t>Kiến trúc sư phần mềm</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Vũ Võ Văn</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>10/08/1987</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0881349036</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
           <t>Giám đốc kinh doanh</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2870,22 +2902,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đinh Minh</t>
+          <t>Trịnh Minh</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/17/2000</t>
+          <t>11/22/1998</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2895,77 +2927,61 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Xtiêng</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
+          <t>09/13/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0366102702</t>
+          <t>0900191883</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Bến Tre</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Đặng Khương Đức</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>07/27/1969</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0889711614</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Trần Phí Minh</t>
+          <t>Đặng Tiêu Quốc</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>05/04/1977</t>
+          <t>04/03/1964</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0763446114</t>
+          <t>0388757608</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Thợ xây</t>
+          <t>Công nhân sản xuất</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -2987,47 +3003,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Đinh Đình</t>
+          <t>Phạm Hồng</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/15/2006</t>
+          <t>02/02/2003</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Cơ Ho</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0864930083</t>
+          <t>0345912258</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3037,42 +3053,42 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Mai Hoàng Đình</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>10/13/1965</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0775883247</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Trần Tạ Minh</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>04/29/1986</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0708160516</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3088,22 +3104,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/29/2004</t>
+          <t>12/15/2002</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3113,22 +3129,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>09/12/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0812096351</t>
+          <t>0933069477</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3138,7 +3154,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3148,44 +3164,28 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Đặng Quách Quốc</t>
+          <t>Đặng Phan Thành</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>07/27/1962</t>
+          <t>10/14/1972</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0787163175</t>
+          <t>0912205830</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Đặng Khương Quốc</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>01/23/1960</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0332734670</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
+          <t>Tư vấn khách hàng</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3205,47 +3205,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chu Hữu</t>
+          <t>Đinh Hữu</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/29/2004</t>
+          <t>03/29/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>09/18/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0822500420</t>
+          <t>0753779027</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3265,42 +3265,42 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Phạm Quách Thành</t>
+          <t>Phạm Khương Quốc</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/26/1968</t>
+          <t>06/15/1983</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0720659164</t>
+          <t>0763902935</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Kiểm toán</t>
+          <t>Kiến trúc sư phần mềm</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Trần Đinh Văn</t>
+          <t>Lê Phùng Hữu</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/27/1958</t>
+          <t>07/26/1973</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0718565550</t>
+          <t>0988011843</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -3322,22 +3322,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Võ Văn</t>
+          <t>Phí Đức</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/16/2000</t>
+          <t>04/16/2001</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3347,27 +3347,27 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>M nông</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0814981602</t>
+          <t>0304783858</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Phú Thọ</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3380,28 +3380,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Đặng Trịnh Đình</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>05/05/1985</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0389120250</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Dương Võ Văn</t>
+          <t>Vũ Ngô Thành</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/12/1991</t>
+          <t>04/25/1992</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0338898595</t>
+          <t>0356206224</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -3423,47 +3439,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lý Văn</t>
+          <t>Lưu Minh</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/17/1999</t>
+          <t>01/30/2002</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0897056683</t>
+          <t>0306205276</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Cà Mau</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3473,7 +3489,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3483,28 +3499,44 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mai Đào Hữu</t>
+          <t>Đặng Nguyễn Quốc</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>06/16/1964</t>
+          <t>02/10/1993</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0822095475</t>
+          <t>0370408236</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Nhà thiết kế đồ họa</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Mai Đinh Thành</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>03/14/1974</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0723842945</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -3524,22 +3556,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Đào Thành</t>
+          <t>Đào Hồng</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/16/2004</t>
+          <t>05/15/2004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3549,32 +3581,32 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0378289501</t>
+          <t>0973462606</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3582,30 +3614,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Mai Đào Thành</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>06/05/1958</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0744894826</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Kỹ sư nông nghiệp</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Bùi Ngô Thành</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>07/05/1994</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0358871070</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3625,108 +3657,92 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phan Thị</t>
+          <t>Hứa Đình</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/31/2006</t>
+          <t>08/31/2001</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Chu Ru</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>09/23/2024</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0752476220</t>
+          <t>0969841551</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Lê Thạch Thành</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/15/1974</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0313121789</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Hoàng Vũ Quốc</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>07/04/1994</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0812666480</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Mai Phí Hồng</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>10/20/1975</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0817200253</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3742,47 +3758,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trịnh Hữu</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/13/2004</t>
+          <t>06/18/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>09/14/2024</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0793300167</t>
+          <t>0738306860</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Lạng Sơn</t>
+          <t>Bình Dương</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3806,22 +3822,22 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Bùi Đào Đức</t>
+          <t>Mai Phùng Quốc</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/30/1994</t>
+          <t>12/29/1990</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0896018046</t>
+          <t>0899278084</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Nhà phân tích dữ liệu</t>
+          <t>Nhân viên khách sạn</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3843,47 +3859,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Huỳnh Đức</t>
+          <t>Lê Thành</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/29/2003</t>
+          <t>04/22/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Gia Rai</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>09/19/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0962960642</t>
+          <t>0336016986</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3911,22 +3927,22 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Phạm Thái Thành</t>
+          <t>Hoàng Trịnh Thị</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>05/22/1971</t>
+          <t>10/01/1964</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0918717548</t>
+          <t>0324547945</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3960,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chu Thị</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/06/2004</t>
+          <t>11/15/2002</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3969,83 +3985,67 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>09/16/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0936605635</t>
+          <t>0772042516</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Bùi Hứa Thành</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>07/19/1992</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0869661611</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Mai Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>06/03/1989</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0367346737</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Mai Hứa Hữu</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>10/07/1964</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0819190110</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tôn Đức</t>
+          <t>Nguyễn Hữu</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/20/2003</t>
+          <t>03/18/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4086,22 +4086,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>09/17/2024</t>
+          <t>09/22/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0329028946</t>
+          <t>0345454352</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4125,22 +4125,22 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Dương Trịnh Văn</t>
+          <t>Hoàng Khương Thành</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>04/27/1977</t>
+          <t>06/02/1978</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0909869073</t>
+          <t>0846700272</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>Chuyên viên bán hàng trực tuyến</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -4162,22 +4162,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Đinh Quốc</t>
+          <t>Khương Thành</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03/13/1999</t>
+          <t>05/25/2000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4187,27 +4187,27 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>09/29/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0924758606</t>
+          <t>0316440925</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4220,28 +4220,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Hoàng Tôn Đức</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08/09/1959</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0303863965</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Đặng Sơn Văn</t>
+          <t>Trần Hồ Thành</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>11/27/1979</t>
+          <t>01/20/1955</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0934540271</t>
+          <t>0779577322</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>Quản lý sản xuất</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -4263,22 +4279,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hà Đức</t>
+          <t>Uông Minh</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/30/2004</t>
+          <t>11/20/1999</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4288,22 +4304,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0821525390</t>
+          <t>0316768666</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Đắk Lắk</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4313,7 +4329,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4323,44 +4339,28 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Hoàng Vương Đình</t>
+          <t>Hoàng Thạch Hữu</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>02/06/1963</t>
+          <t>08/05/1984</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0727608499</t>
+          <t>0330751534</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Vũ Tạ Đức</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>04/14/1973</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0982576491</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
+          <t>Thợ xây</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -4380,22 +4380,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hà Quốc</t>
+          <t>Sơn Văn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/27/2006</t>
+          <t>12/04/2002</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4405,22 +4405,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0778215928</t>
+          <t>0980429513</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4448,22 +4448,22 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Dương Vương Hồng</t>
+          <t>Lê Đoàn Minh</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>10/10/1953</t>
+          <t>09/07/1983</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0322417553</t>
+          <t>0894014334</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Thợ xây</t>
+          <t>Chuyên viên bảo mật</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/31/2003</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Sán Chay</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>09/15/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0927099421</t>
+          <t>0941936749</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Tiền Giang</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4541,42 +4541,42 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Trần Quách Quốc</t>
+          <t>Mai Phí Hữu</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>06/18/1990</t>
+          <t>08/25/1960</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0790091345</t>
+          <t>0749308402</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Giáo viên</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Lê Tôn Đức</t>
+          <t>Dương Thạch Văn</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>09/12/1966</t>
+          <t>08/21/1962</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0950251157</t>
+          <t>0914505332</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -4598,22 +4598,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Khương Đức</t>
+          <t>Vương Đình</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>01/26/2000</t>
+          <t>04/09/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4623,22 +4623,22 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0897601443</t>
+          <t>0399179156</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4658,22 +4658,22 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Trần Thạch Hồng</t>
+          <t>Dương Phí Hồng</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>04/01/1994</t>
+          <t>09/03/1977</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0853505586</t>
+          <t>0972926106</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Nhà phân tích dữ liệu</t>
+          <t>Nhân viên nhà hàng</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4699,47 +4699,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Chu Đức</t>
+          <t>Tạ Thị</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/21/2000</t>
+          <t>12/07/1998</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>09/24/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0727571601</t>
+          <t>0700353640</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Điện Biên</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4749,42 +4749,42 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Bùi Khương Văn</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>05/12/1976</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>0391995346</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Trần Trịnh Hữu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>07/13/1977</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0767801757</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,22 +584,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Đào Đức</t>
+          <t>Đoàn Quốc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -609,22 +609,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09/17/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0935853935</t>
+          <t>0360454477</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Hà Nam</t>
+          <t>Yên Bái</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -652,22 +652,22 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Vũ Trần Quốc</t>
+          <t>Trần Tiêu Đình</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>12/26/1955</t>
+          <t>05/12/1993</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0783959296</t>
+          <t>0990468860</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Nông dân</t>
+          <t>Kỹ sư giám sát</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thạch Đình</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>02/16/2001</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0905412458</t>
+          <t>0704908785</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -745,42 +745,42 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Phạm Trịnh Đình</t>
+          <t>Trần Tạ Quốc</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>02/10/1967</t>
+          <t>10/07/1980</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0853592077</t>
+          <t>0369100140</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
+          <t>Kiến trúc sư</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Dương Đoàn Hồng</t>
+          <t>Mai Đỗ Thành</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/18/1967</t>
+          <t>10/16/1983</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0851547006</t>
+          <t>0384049213</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Luật sư</t>
+          <t>Kỹ sư giám sát</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -802,47 +802,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tôn Hồng</t>
+          <t>Nguyễn Minh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/16/2006</t>
+          <t>09/11/2004</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Ê Đê</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0362206472</t>
+          <t>0306277815</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>Thái Bình</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -870,22 +870,22 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Dương Đinh Đức</t>
+          <t>Mai Tiêu Thị</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>02/20/1961</t>
+          <t>12/27/1957</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0870383060</t>
+          <t>0342583798</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>Thợ xây</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Chu Minh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/19/2006</t>
+          <t>08/30/2001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>La Ha</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09/20/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0883987305</t>
+          <t>0887501090</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Bình Định</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -963,44 +963,28 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bùi Thi Văn</t>
+          <t>Trần Đoàn Hữu</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/25/1965</t>
+          <t>11/14/1981</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0387472078</t>
+          <t>0979649762</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Trần Lý Hữu</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>04/08/1957</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0343306901</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1020,22 +1004,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thi Thành</t>
+          <t>Đặng Quốc</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/21/2001</t>
+          <t>08/22/2003</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1045,22 +1029,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0813046262</t>
+          <t>0825167688</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1070,7 +1054,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1080,28 +1064,44 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bùi Thạch Đình</t>
+          <t>Đặng Trịnh Minh</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>07/26/1970</t>
+          <t>04/07/1990</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0953588463</t>
+          <t>0737405684</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Hoàng Lưu Hữu</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>11/13/1959</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0318278408</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tôn Hữu</t>
+          <t>Tiêu Quốc</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/22/2000</t>
+          <t>03/06/2002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1146,67 +1146,83 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>10/07/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0940828625</t>
+          <t>0889372099</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Vũ Hoàng Thành</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>04/25/1968</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0902633593</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Mai Hoàng Hồng</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>05/24/1994</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0946309413</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Hoàng Sơn Hữu</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>07/17/1957</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0858078951</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1222,22 +1238,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hứa Thành</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/14/1998</t>
+          <t>03/16/2003</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1247,22 +1263,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Gia Rai</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/08/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0842594298</t>
+          <t>0372826028</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Bắc Ninh</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1277,7 +1293,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1290,22 +1306,22 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Hoàng Trịnh Thị</t>
+          <t>Đặng Chu Đình</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>09/26/1980</t>
+          <t>06/26/1985</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0914224251</t>
+          <t>0855356744</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
     </row>
@@ -1323,22 +1339,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sơn Hữu</t>
+          <t>Thạch Văn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04/30/2004</t>
+          <t>06/24/2001</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1348,27 +1364,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>09/27/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0857313705</t>
+          <t>0739682502</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1381,23 +1397,39 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Bùi Nghiêm Đức</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12/20/1977</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0302785185</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Trần Phí Văn</t>
+          <t>Đặng Nguyễn Quốc</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/15/1978</t>
+          <t>08/10/1975</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0321545698</t>
+          <t>0385181232</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1424,47 +1456,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sơn Quốc</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/03/1999</t>
+          <t>06/12/2000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Chu Ru</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0764005568</t>
+          <t>0845833718</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1474,42 +1506,42 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Bùi Đào Quốc</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>03/17/1970</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0819802122</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Vũ Hà Văn</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>03/03/1975</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0983166330</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1525,52 +1557,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mai Thị</t>
+          <t>Thạch Hữu</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11/28/2001</t>
+          <t>02/14/2002</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0372180819</t>
+          <t>0339433146</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Nam Định</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1583,28 +1615,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Mai Hoàng Quốc</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>07/06/1964</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0862914156</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Mai Quách Đình</t>
+          <t>Lê Dương Hồng</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>09/06/1957</t>
+          <t>08/06/1975</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0338749977</t>
+          <t>0958142136</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Nông dân</t>
+          <t>Luật sư</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1626,22 +1674,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trương Thành</t>
+          <t>Sơn Quốc</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/11/2001</t>
+          <t>10/15/2002</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1651,63 +1699,63 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0739457416</t>
+          <t>0919146429</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Tiền Giang</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Phạm Đào Minh</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>05/16/1991</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0899926677</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Thị</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>07/18/1963</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0900233507</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1727,22 +1775,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sơn Minh</t>
+          <t>Uông Hữu</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/11/2000</t>
+          <t>05/04/2000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1752,22 +1800,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0813638623</t>
+          <t>0728448960</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1777,42 +1825,42 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Mai Từ Văn</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>01/24/1991</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0779498988</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Đặng Sơn Minh</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>06/09/1987</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0973489056</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1828,22 +1876,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hoàng Hồng</t>
+          <t>Quách Đình</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/20/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1853,27 +1901,27 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>09/29/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0726796542</t>
+          <t>0825015425</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1886,28 +1934,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Thành</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>03/25/1994</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0814452736</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Thị</t>
+          <t>Trần Vương Quốc</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>10/30/1977</t>
+          <t>03/16/1984</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0352859536</t>
+          <t>0765963262</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1929,47 +1993,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lương Thị</t>
+          <t>Khương Đình</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/20/1999</t>
+          <t>09/29/2005</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0750274591</t>
+          <t>0781720073</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1979,7 +2043,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1989,44 +2053,28 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Hoàng Hứa Đức</t>
+          <t>Vũ Đoàn Minh</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>08/04/1985</t>
+          <t>10/07/1955</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0951624806</t>
+          <t>0726368235</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Vũ Đinh Quốc</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>05/07/1972</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0390886271</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
+          <t>Thợ xây</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -2046,92 +2094,108 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trần Quốc</t>
+          <t>Lương Đức</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/29/2001</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0983934332</t>
+          <t>0757946407</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Lào Cai</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Phạm Sơn Đức</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>04/06/1958</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0847369063</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Hoàng Uông Minh</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>01/24/1991</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0808127472</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Nguyễn Đinh Hồng</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>10/10/1974</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0856808767</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2147,88 +2211,88 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hà Thị</t>
+          <t>Vương Văn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/25/2006</t>
+          <t>05/26/2004</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0866056539</t>
+          <t>0883158451</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Lê Nguyễn Quốc</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>10/07/1956</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0324321748</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Mai Trương Quốc</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>01/30/1955</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0738934285</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -2248,22 +2312,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Uông Văn</t>
+          <t>Đào Đình</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/01/2004</t>
+          <t>12/01/2004</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2273,27 +2337,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0728728202</t>
+          <t>0958726184</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Quảng Ninh</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2303,37 +2367,37 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Vũ Thi Thị</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>05/08/1963</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0795132349</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Lê Khương Thị</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>07/07/1988</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0813791862</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -2349,102 +2413,86 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hứa Đức</t>
+          <t>Hà Hồng</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>11/23/2001</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0720408602</t>
+          <t>0936639361</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Đặng Tôn Hữu</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>05/12/1974</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0379728629</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Mai Phí Hữu</t>
+          <t>Vũ Lý Thị</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>05/09/1990</t>
+          <t>02/23/1967</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0795949384</t>
+          <t>0952503030</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
+          <t>Nhân viên nhà hàng</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -2466,47 +2514,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nghiêm Hồng</t>
+          <t>Phạm Đức</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>03/09/2000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10/03/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0359534483</t>
+          <t>0979438719</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2516,42 +2564,42 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Mai Khương Đình</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>02/18/1972</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0329164887</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>Kỹ sư nông nghiệp</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dương Phan Đức</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>03/16/1993</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0839563193</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -2567,47 +2615,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Đào Hồng</t>
+          <t>Chu Quốc</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/01/2000</t>
+          <t>08/29/2003</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09/21/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0701897310</t>
+          <t>0330588459</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2617,7 +2665,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2627,44 +2675,28 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Nguyễn Lương Hữu</t>
+          <t>Mai Trịnh Quốc</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>07/03/1977</t>
+          <t>11/22/1963</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0804202278</t>
+          <t>0711327366</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Phạm Tạ Văn</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>11/13/1967</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0382547327</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2684,47 +2716,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vương Hữu</t>
+          <t>Nguyễn Thành</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01/26/2001</t>
+          <t>08/18/2001</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>La Ha</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0733201931</t>
+          <t>0343047768</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2734,7 +2766,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2744,28 +2776,44 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lê Hoàng Quốc</t>
+          <t>Phạm Đinh Đức</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10/21/1966</t>
+          <t>06/17/1987</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0963947872</t>
+          <t>0891407936</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Hoàng Huỳnh Quốc</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>07/22/1982</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0797124022</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2785,47 +2833,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phan Văn</t>
+          <t>Tiêu Thị</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/10/1999</t>
+          <t>04/28/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09/17/2024</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0758956176</t>
+          <t>0915056166</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2835,7 +2883,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2845,44 +2893,28 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Phạm Chu Thị</t>
+          <t>Trần Hồ Thành</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>03/30/1978</t>
+          <t>04/11/1972</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0798167060</t>
+          <t>0989924769</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Vũ Võ Văn</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>10/08/1987</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0881349036</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
+          <t>Kiến trúc sư</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2902,22 +2934,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trịnh Minh</t>
+          <t>Đinh Hồng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/22/1998</t>
+          <t>04/04/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2932,17 +2964,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>09/13/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0900191883</t>
+          <t>0791010349</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Nam Định</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2966,22 +2998,22 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Đặng Tiêu Quốc</t>
+          <t>Trần Thi Hồng</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>04/03/1964</t>
+          <t>06/02/1959</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0388757608</t>
+          <t>0906707377</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
+          <t>Nhà phân tích dữ liệu</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -3003,47 +3035,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phạm Hồng</t>
+          <t>Khương Văn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/02/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0345912258</t>
+          <t>0363055381</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3053,42 +3085,42 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Trần Tạ Minh</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>04/29/1986</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0708160516</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Nhà thiết kế đồ họa</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Phạm Tiêu Quốc</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>01/20/1969</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0750840346</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3104,22 +3136,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Vũ Hồng</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/15/2002</t>
+          <t>12/10/2000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3129,63 +3161,63 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09/12/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0933069477</t>
+          <t>0937674381</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Đặng Phan Thành</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/14/1972</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0912205830</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Tư vấn khách hàng</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Mai Khương Đình</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>06/19/1965</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0955655833</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3205,108 +3237,92 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Đinh Hữu</t>
+          <t>Nghiêm Đức</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/29/2006</t>
+          <t>11/27/1998</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09/18/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0753779027</t>
+          <t>0704800875</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Nghệ An</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Phạm Khương Quốc</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>06/15/1983</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0763902935</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư phần mềm</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Lê Phùng Hữu</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>07/26/1973</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0988011843</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Bùi Lương Văn</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>08/25/1973</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>0986273673</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3322,22 +3338,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phí Đức</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/16/2001</t>
+          <t>12/03/2001</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3347,22 +3363,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0304783858</t>
+          <t>0845698686</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Phú Thọ</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3382,42 +3398,42 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Đặng Trịnh Đình</t>
+          <t>Bùi Trịnh Thị</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/05/1985</t>
+          <t>08/23/1962</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0389120250</t>
+          <t>0397019811</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Luật sư</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Vũ Ngô Thành</t>
+          <t>Bùi Từ Thành</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/25/1992</t>
+          <t>03/31/1977</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0356206224</t>
+          <t>0808786589</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Công nhân sản xuất</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -3439,108 +3455,92 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lưu Minh</t>
+          <t>Quách Đình</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/30/2002</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0306205276</t>
+          <t>0837842765</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Đặng Nguyễn Quốc</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>02/10/1993</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0370408236</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Mai Đinh Thành</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>03/14/1974</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0723842945</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Trần Khương Văn</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>06/27/1988</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0736413344</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3556,52 +3556,52 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Đào Hồng</t>
+          <t>Phí Văn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/15/2004</t>
+          <t>10/08/2002</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0973462606</t>
+          <t>0773824988</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3611,37 +3611,37 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Bùi Ngô Thành</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>07/05/1994</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0358871070</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Đặng Tạ Quốc</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>04/28/1994</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0903948200</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -3657,47 +3657,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hứa Đình</t>
+          <t>Từ Đức</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/31/2001</t>
+          <t>08/13/2001</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0969841551</t>
+          <t>0926582597</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Hà Nội</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3707,42 +3707,42 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Mai Phí Hồng</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>10/20/1975</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0817200253</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Đặng Đào Đức</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>09/27/1962</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0852577728</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3758,27 +3758,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Thi Quốc</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/18/2003</t>
+          <t>04/01/1999</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3788,22 +3788,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0738306860</t>
+          <t>0395223596</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Bình Dương</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3816,28 +3816,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Bùi Tiêu Đình</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>05/14/1955</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0919071111</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Mai Phùng Quốc</t>
+          <t>Bùi Thạch Minh</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>12/29/1990</t>
+          <t>10/14/1954</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0899278084</t>
+          <t>0875616475</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Nhân viên khách sạn</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3859,22 +3875,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lê Thành</t>
+          <t>Tiêu Minh</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/22/2003</t>
+          <t>07/18/2004</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3884,67 +3900,83 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Gia Rai</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>09/19/2024</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0336016986</t>
+          <t>0332196881</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Hoàng Trịnh Thị</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>10/01/1964</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>0324547945</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Lê Đinh Thị</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>01/18/1990</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0356597383</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Bùi Quách Thị</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>07/06/1989</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0793197966</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3960,92 +3992,108 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/15/2002</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>09/16/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0772042516</t>
+          <t>0705904397</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Mai Hứa Hữu</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>10/07/1964</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>0819190110</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Phạm Khương Quốc</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>02/26/1982</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0360936740</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Bùi Đặng Thành</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>09/18/1962</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0766853407</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Kế toán</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4061,47 +4109,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu</t>
+          <t>Khương Hồng</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>03/18/2002</t>
+          <t>09/18/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>09/22/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0345454352</t>
+          <t>0345246901</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4111,42 +4159,42 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Hoàng Khương Thành</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>06/02/1978</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0846700272</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Bùi Bùi Đức</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>04/25/1974</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>0714271798</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4162,22 +4210,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Khương Thành</t>
+          <t>Hứa Hồng</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/25/2000</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4187,77 +4235,61 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09/29/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0316440925</t>
+          <t>0914773662</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Đắk Lắk</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Hoàng Tôn Đức</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>08/09/1959</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0303863965</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Trần Hồ Thành</t>
+          <t>Nguyễn Quách Đình</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>01/20/1955</t>
+          <t>07/23/1962</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0779577322</t>
+          <t>0345855071</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>Nhân viên khách sạn</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -4279,22 +4311,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Uông Minh</t>
+          <t>Từ Thành</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/20/1999</t>
+          <t>03/11/2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4304,22 +4336,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>09/25/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0316768666</t>
+          <t>0869602805</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4329,7 +4361,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4339,28 +4371,44 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Hoàng Thạch Hữu</t>
+          <t>Hoàng Đinh Hồng</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>08/05/1984</t>
+          <t>01/29/1955</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0330751534</t>
+          <t>0861045223</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Trần Đoàn Hồng</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>08/14/1981</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0360667639</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
           <t>Thợ xây</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -4380,92 +4428,108 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sơn Văn</t>
+          <t>Phí Thành</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/04/2002</t>
+          <t>12/19/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0980429513</t>
+          <t>0723574702</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Lê Đoàn Minh</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>09/07/1983</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>0894014334</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Hoàng Từ Đình</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>10/18/1979</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0973382817</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Đặng Tôn Hồng</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>07/20/1958</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0723850062</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -4481,12 +4545,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Quách Thị</t>
+          <t>Từ Thị</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4496,7 +4560,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>03/17/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4506,83 +4570,67 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0941936749</t>
+          <t>0810277578</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Mai Phí Hữu</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>08/25/1960</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0749308402</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Dương Thạch Văn</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>08/21/1962</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0914505332</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Nguyễn Nghiêm Đình</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>02/07/1979</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0723906279</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4598,22 +4646,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Vương Đình</t>
+          <t>Lê Thành</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/09/2000</t>
+          <t>03/07/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4623,27 +4671,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0399179156</t>
+          <t>0761527199</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4653,37 +4701,37 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Dương Phí Hồng</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>09/03/1977</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0972926106</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Vũ Uông Đình</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>05/31/1960</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0729851152</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4699,57 +4747,57 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tạ Thị</t>
+          <t>Trịnh Đức</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/07/1998</t>
+          <t>01/13/1999</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Nùng</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>09/24/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0700353640</t>
+          <t>0782029765</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4757,30 +4805,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Trần Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>07/13/1977</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0767801757</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Bùi Bùi Thành</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>08/28/1954</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0756238861</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,47 +584,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Đoàn Quốc</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>01/21/2006</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10/18/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0360454477</t>
+          <t>0938810037</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Yên Bái</t>
+          <t>Quảng Nam</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -634,42 +634,42 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Trần Tiêu Đình</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>05/12/1993</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0990468860</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lê Thi Văn</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>04/06/1991</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0998382572</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -685,102 +685,86 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Thái Đình</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/16/2001</t>
+          <t>10/15/2005</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0704908785</t>
+          <t>0860285307</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Cà Mau</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Trần Tạ Quốc</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>10/07/1980</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0369100140</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Mai Đỗ Thành</t>
+          <t>Phạm Thạch Văn</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>10/16/1983</t>
+          <t>09/09/1990</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0384049213</t>
+          <t>0397038908</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Kỹ sư giám sát</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -802,52 +786,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nguyễn Minh</t>
+          <t>Từ Đức</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/11/2004</t>
+          <t>03/06/2005</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Sán Chay</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0306277815</t>
+          <t>0395234692</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Thái Bình</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -857,37 +841,37 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Nguyễn Từ Đức</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>02/10/1990</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0915700720</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Mai Tiêu Thị</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>12/27/1957</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0342583798</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -903,47 +887,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chu Minh</t>
+          <t>Phí Hữu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/30/2001</t>
+          <t>08/16/1999</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0887501090</t>
+          <t>0734242194</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Bình Định</t>
+          <t>Điện Biên</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -953,7 +937,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -963,28 +947,44 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Trần Đoàn Hữu</t>
+          <t>Vũ Từ Hữu</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11/14/1981</t>
+          <t>07/16/1976</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0979649762</t>
+          <t>0871622864</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Hoàng Trịnh Văn</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>09/21/1962</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0990771960</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đặng Quốc</t>
+          <t>Mai Đình</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/22/2003</t>
+          <t>01/24/2001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1029,77 +1029,61 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>09/28/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0825167688</t>
+          <t>0309101615</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Đặng Trịnh Minh</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>04/07/1990</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0737405684</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Hoàng Lưu Hữu</t>
+          <t>Hoàng Đinh Thành</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11/13/1959</t>
+          <t>03/25/1969</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0318278408</t>
+          <t>0876546330</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Chuyên viên bảo mật</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1121,22 +1105,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tiêu Quốc</t>
+          <t>Khương Quốc</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/06/2002</t>
+          <t>08/05/2000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1146,22 +1130,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Nùng</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0889372099</t>
+          <t>0947962683</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1181,42 +1165,42 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Mai Hoàng Hồng</t>
+          <t>Hoàng Ngô Đức</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/24/1994</t>
+          <t>02/01/1962</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0946309413</t>
+          <t>0897097195</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Hoàng Sơn Hữu</t>
+          <t>Vũ Dương Thành</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>07/17/1957</t>
+          <t>09/07/1985</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0858078951</t>
+          <t>0739203631</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Quản lý sản xuất</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
@@ -1238,52 +1222,52 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Quách Thị</t>
+          <t>Đào Thị</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/16/2003</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10/08/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0372826028</t>
+          <t>0737251215</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1293,37 +1277,37 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Lê Đào Quốc</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>01/27/1968</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0395640814</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Đặng Chu Đình</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>06/26/1985</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0855356744</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1339,22 +1323,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Thạch Văn</t>
+          <t>Tiêu Văn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06/24/2001</t>
+          <t>11/24/2005</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1364,22 +1348,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>09/27/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0739682502</t>
+          <t>0795263844</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Ninh Bình</t>
+          <t>Lâm Đồng</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1389,7 +1373,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1399,44 +1383,28 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bùi Nghiêm Đức</t>
+          <t>Bùi Tôn Hồng</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/20/1977</t>
+          <t>02/04/1975</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0302785185</t>
+          <t>0360147702</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Đặng Nguyễn Quốc</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>08/10/1975</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0385181232</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1456,22 +1424,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Tạ Quốc</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06/12/2000</t>
+          <t>09/23/2000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1481,27 +1449,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Hrê</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10/22/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0845833718</t>
+          <t>0805829968</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1514,28 +1482,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Lê Từ Đình</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>06/20/1957</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0358571520</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Kiểm toán</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Vũ Hà Văn</t>
+          <t>Vũ Trịnh Hữu</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>03/03/1975</t>
+          <t>12/20/1993</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0983166330</t>
+          <t>0870039563</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
+          <t>Dược sĩ</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1557,22 +1541,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Thạch Hữu</t>
+          <t>Quách Minh</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/14/2002</t>
+          <t>02/23/2003</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1582,83 +1566,67 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Chu Ru</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0339433146</t>
+          <t>0710777901</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Nam Định</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Mai Hoàng Quốc</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>07/06/1964</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0862914156</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Lê Dương Hồng</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>08/06/1975</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0958142136</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Nguyễn Nghiêm Thành</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>06/27/1976</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0736591536</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Thợ xây</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1674,57 +1642,57 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sơn Quốc</t>
+          <t>Phan Hữu</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/15/2002</t>
+          <t>09/05/2006</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0919146429</t>
+          <t>0383119875</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Tiền Giang</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1732,30 +1700,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Nguyễn Trịnh Thị</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>07/18/1963</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0900233507</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bùi Trịnh Thành</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>08/24/1973</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0809713419</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1775,32 +1743,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uông Hữu</t>
+          <t>Uông Hồng</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/04/2000</t>
+          <t>11/19/2001</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1810,17 +1778,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0728448960</t>
+          <t>0841564752</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1830,37 +1798,37 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Phạm Trịnh Đình</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12/29/1959</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0324670723</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Đặng Sơn Minh</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>06/09/1987</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0973489056</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1876,12 +1844,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Phí Đình</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1891,7 +1859,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>06/10/2000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1901,7 +1869,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>La Chí</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1911,73 +1879,57 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0825015425</t>
+          <t>0822336151</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Lào Cai</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Nguyễn Trịnh Thành</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>03/25/1994</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0814452736</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Trần Vương Quốc</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>03/16/1984</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0765963262</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Nguyễn Chu Thành</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>12/09/1972</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0874704189</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1993,88 +1945,88 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Khương Đình</t>
+          <t>Sơn Thành</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/29/2005</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0781720073</t>
+          <t>0757936465</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Vũ Đoàn Minh</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>10/07/1955</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0726368235</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Nguyễn Chu Thị</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>12/26/1962</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0946781070</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -2094,47 +2046,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lương Đức</t>
+          <t>Khương Hồng</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>06/25/2002</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0757946407</t>
+          <t>0365062981</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2154,42 +2106,42 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Hoàng Uông Minh</t>
+          <t>Dương Tôn Đức</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/24/1991</t>
+          <t>09/28/1968</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0808127472</t>
+          <t>0862659599</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Nông dân</t>
+          <t>Lập trình viên</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Nguyễn Đinh Hồng</t>
+          <t>Phạm Tăng Quốc</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>10/10/1974</t>
+          <t>02/08/1983</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0856808767</t>
+          <t>0396630166</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
+          <t>Kế toán</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2211,22 +2163,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vương Văn</t>
+          <t>Tiêu Thị</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/26/2004</t>
+          <t>07/14/2004</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2236,22 +2188,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0883158451</t>
+          <t>0801249604</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Nghệ An</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2275,22 +2227,22 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Mai Trương Quốc</t>
+          <t>Hoàng Chu Hồng</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/30/1955</t>
+          <t>01/09/1956</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0738934285</t>
+          <t>0828537726</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Nhân viên khách sạn</t>
+          <t>Chuyên viên bảo mật</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2312,22 +2264,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Đào Đình</t>
+          <t>Tạ Quốc</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/01/2004</t>
+          <t>12/06/2004</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2337,63 +2289,63 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/22/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0958726184</t>
+          <t>0741735510</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Quảng Ninh</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Vũ Thi Thị</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>05/08/1963</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0795132349</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Nhà thiết kế đồ họa</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Mai Đào Văn</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>02/09/1982</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0726085115</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Nhân viên kinh doanh</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2413,47 +2365,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hà Hồng</t>
+          <t>Đinh Thành</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/23/2001</t>
+          <t>09/05/2004</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0936639361</t>
+          <t>0730036249</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2477,22 +2429,22 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Vũ Lý Thị</t>
+          <t>Vũ Thạch Quốc</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/23/1967</t>
+          <t>05/18/1970</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0952503030</t>
+          <t>0946438110</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>Thợ xây</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -2514,52 +2466,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phạm Đức</t>
+          <t>Từ Văn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/09/2000</t>
+          <t>03/16/2005</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>09/26/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0979438719</t>
+          <t>0320729361</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>Bắc Ninh</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2572,28 +2524,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Mai Lê Quốc</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>12/30/1975</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0721371221</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Dương Phan Đức</t>
+          <t>Hoàng Đinh Thị</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/16/1993</t>
+          <t>05/06/1994</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0839563193</t>
+          <t>0303773689</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Kỹ sư giám sát</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -2615,52 +2583,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chu Quốc</t>
+          <t>Từ Thành</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/29/2003</t>
+          <t>04/20/2000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10/22/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0330588459</t>
+          <t>0959240210</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2670,37 +2638,37 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Mai Trịnh Quốc</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11/22/1963</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0711327366</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Đặng Khương Đức</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>09/09/1964</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0885089474</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -2716,47 +2684,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nguyễn Thành</t>
+          <t>Lê Thị</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/18/2001</t>
+          <t>08/10/1999</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0343047768</t>
+          <t>0348109975</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2776,42 +2744,42 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Phạm Đinh Đức</t>
+          <t>Trần Hà Đức</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>06/17/1987</t>
+          <t>01/19/1972</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0891407936</t>
+          <t>0884293195</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Kỹ sư xây dựng</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Hoàng Huỳnh Quốc</t>
+          <t>Hoàng Quách Hồng</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>07/22/1982</t>
+          <t>10/02/1960</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0797124022</t>
+          <t>0330338438</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Thư ký pháp lý</t>
+          <t>Kỹ sư giám sát</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2833,27 +2801,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>Lưu Văn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/28/2006</t>
+          <t>03/19/2005</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2863,22 +2831,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0915056166</t>
+          <t>0772069683</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2888,37 +2856,37 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Trần Hồ Thành</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>04/11/1972</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0989924769</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Lê Trịnh Thị</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>11/04/1962</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0386127450</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -2934,22 +2902,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đinh Hồng</t>
+          <t>Võ Hồng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/04/2006</t>
+          <t>11/22/2000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2959,7 +2927,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Ê Đê</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2969,22 +2937,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0791010349</t>
+          <t>0886668827</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Nam Định</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2992,30 +2960,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Trần Thi Hồng</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>06/02/1959</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0906707377</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Nhà phân tích dữ liệu</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Đặng Vũ Đức</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>11/04/1972</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0886156284</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -3035,22 +3003,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Khương Văn</t>
+          <t>Phí Đức</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/26/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3060,22 +3028,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0363055381</t>
+          <t>0817598651</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3085,42 +3053,42 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Phạm Tiêu Quốc</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>01/20/1969</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0750840346</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Bùi Hà Văn</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>12/02/1975</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0701529368</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Kiến trúc sư phần mềm</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3136,57 +3104,57 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vũ Hồng</t>
+          <t>Tôn Thị</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/10/2000</t>
+          <t>01/28/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0937674381</t>
+          <t>0922455912</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3194,30 +3162,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Mai Khương Đình</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>06/19/1965</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0955655833</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Mai Chu Thành</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>11/17/1980</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0947772896</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3237,22 +3205,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nghiêm Đức</t>
+          <t>Hứa Văn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/27/1998</t>
+          <t>05/11/2003</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3262,67 +3230,83 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0704800875</t>
+          <t>0894048219</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Nghệ An</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Bùi Lương Văn</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>08/25/1973</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0986273673</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Phạm Huỳnh Thị</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>06/22/1969</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0832223724</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dương Lê Thị</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>07/17/1992</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0328192653</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3338,47 +3322,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Thi Hữu</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/03/2001</t>
+          <t>02/12/1999</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0845698686</t>
+          <t>0386575444</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3388,7 +3372,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3398,44 +3382,28 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bùi Trịnh Thị</t>
+          <t>Mai Thạch Đức</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>08/23/1962</t>
+          <t>03/09/1988</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0397019811</t>
+          <t>0995591505</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Bùi Từ Thành</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>03/31/1977</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0808786589</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3455,22 +3423,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Tiêu Quốc</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3480,67 +3448,83 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0837842765</t>
+          <t>0970012688</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Trần Khương Văn</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>06/27/1988</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>0736413344</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Mai Hứa Hồng</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>10/19/1973</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0878797571</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Lê Nghiêm Hồng</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>05/12/1964</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0818000224</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Kiến trúc sư</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3556,22 +3540,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phí Văn</t>
+          <t>Trịnh Quốc</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/08/2002</t>
+          <t>02/27/2000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3581,27 +3565,27 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0773824988</t>
+          <t>0317946814</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Thừa Thiên Huế</t>
+          <t>Lâm Đồng</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3611,37 +3595,37 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Mai Vương Thành</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>01/05/1985</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0315977127</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>Đặng Tạ Quốc</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>04/28/1994</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>0903948200</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>Nhà thiết kế đồ họa</t>
-        </is>
-      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -3657,22 +3641,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Từ Đức</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/13/2001</t>
+          <t>12/09/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3682,22 +3666,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0926582597</t>
+          <t>0878014355</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Hà Nội</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3707,42 +3691,42 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Đặng Đào Đức</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>09/27/1962</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0852577728</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Phạm Đỗ Hữu</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>08/24/1967</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0745373247</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3758,22 +3742,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thi Quốc</t>
+          <t>Tôn Minh</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/01/1999</t>
+          <t>09/15/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3783,22 +3767,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0395223596</t>
+          <t>0703969291</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3818,42 +3802,42 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bùi Tiêu Đình</t>
+          <t>Vũ Võ Thành</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/14/1955</t>
+          <t>08/10/1965</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0919071111</t>
+          <t>0969593684</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
+          <t>Y tá</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Bùi Thạch Minh</t>
+          <t>Nguyễn Ngô Đình</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>10/14/1954</t>
+          <t>05/04/1954</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0875616475</t>
+          <t>0702337977</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3875,47 +3859,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tiêu Minh</t>
+          <t>Phí Hồng</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/18/2004</t>
+          <t>09/19/2005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0332196881</t>
+          <t>0962777942</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Cao Bằng</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3935,42 +3919,42 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Lê Đinh Thị</t>
+          <t>Nguyễn Tô Hồng</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01/18/1990</t>
+          <t>05/19/1962</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0356597383</t>
+          <t>0873842667</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Chuyên viên tín dụng</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Bùi Quách Thị</t>
+          <t>Trần Tôn Quốc</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>07/06/1989</t>
+          <t>10/30/1965</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0793197966</t>
+          <t>0877505963</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Chuyên viên bảo mật</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -3992,27 +3976,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Hoàng Thành</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>11/17/1998</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4022,17 +4006,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0705904397</t>
+          <t>0726824687</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4042,7 +4026,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4052,44 +4036,28 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Phạm Khương Quốc</t>
+          <t>Vũ Uông Hồng</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/26/1982</t>
+          <t>08/03/1954</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0360936740</t>
+          <t>0758668307</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Bùi Đặng Thành</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>09/18/1962</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0766853407</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -4109,12 +4077,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Khương Hồng</t>
+          <t>Uông Hữu</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4124,7 +4092,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/18/2002</t>
+          <t>07/11/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4134,22 +4102,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0345246901</t>
+          <t>0981161964</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4177,22 +4145,22 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Bùi Bùi Đức</t>
+          <t>Lê Chu Hồng</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>04/25/1974</t>
+          <t>06/04/1955</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0714271798</t>
+          <t>0861250897</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Kế toán</t>
         </is>
       </c>
     </row>
@@ -4210,22 +4178,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hứa Hồng</t>
+          <t>Đinh Đức</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>11/13/1998</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4235,32 +4203,32 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0914773662</t>
+          <t>0939483528</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Đắk Lắk</t>
+          <t>Điện Biên</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4268,30 +4236,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Nguyễn Quách Đình</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>07/23/1962</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0345855071</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Nguyễn Khương Hồng</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>09/21/1960</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0931315195</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -4311,108 +4279,92 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Từ Thành</t>
+          <t>Thạch Quốc</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03/11/2003</t>
+          <t>07/15/2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09/25/2024</t>
+          <t>10/12/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0869602805</t>
+          <t>0852909407</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Hoàng Đinh Hồng</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>01/29/1955</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0861045223</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Trần Đoàn Hồng</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>08/14/1981</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0360667639</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Bùi Vương Hữu</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>08/06/1981</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0371172381</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Kiểm toán</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4428,12 +4380,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Phí Thành</t>
+          <t>Vương Đình</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4443,87 +4395,71 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/19/2004</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Mường</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>09/29/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0723574702</t>
+          <t>0750345429</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Yên Bái</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Hoàng Từ Đình</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>10/18/1979</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0973382817</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Đặng Tôn Hồng</t>
+          <t>Lê Chu Hữu</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/20/1958</t>
+          <t>10/02/1974</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0723850062</t>
+          <t>0918932069</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>Chuyên viên tín dụng</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -4545,22 +4481,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Từ Thị</t>
+          <t>Trịnh Hữu</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/17/2000</t>
+          <t>09/19/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4570,7 +4506,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Cơ Ho</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4580,57 +4516,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0810277578</t>
+          <t>0396147103</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Nguyễn Nghiêm Đình</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>02/07/1979</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>0723906279</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Hoàng Đinh Hồng</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>01/25/1988</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0984301037</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Đặng Chu Đình</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>12/15/1958</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0767518097</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4646,12 +4598,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lê Thành</t>
+          <t>Huỳnh Văn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4661,77 +4613,93 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03/07/2000</t>
+          <t>11/03/1998</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0761527199</t>
+          <t>0323359860</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Phú Thọ</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Vũ Uông Đình</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>05/31/1960</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>0729851152</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Dương Quách Thị</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>01/30/1985</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0950250804</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Bùi Uông Quốc</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>01/28/1975</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0789617950</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4747,47 +4715,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trịnh Đức</t>
+          <t>Phạm Đức</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/13/1999</t>
+          <t>11/30/1999</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0782029765</t>
+          <t>0771287529</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4807,22 +4775,22 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bùi Bùi Thành</t>
+          <t>Phạm Đào Thành</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>08/28/1954</t>
+          <t>01/29/1957</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0756238861</t>
+          <t>0773629556</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,52 +584,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Quách Quốc</t>
+          <t>Phùng Thị</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/21/2006</t>
+          <t>11/24/2005</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0938810037</t>
+          <t>0782091523</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -642,28 +642,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Dương Tăng Quốc</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>02/16/1992</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0846624357</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Lê Thi Văn</t>
+          <t>Đặng Hà Minh</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>04/06/1991</t>
+          <t>03/21/1977</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0998382572</t>
+          <t>0393474407</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>Kiến trúc sư phần mềm</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -685,22 +701,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thái Đình</t>
+          <t>Quách Đức</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/15/2005</t>
+          <t>01/17/2004</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -710,22 +726,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0860285307</t>
+          <t>0862799616</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -749,22 +765,22 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Phạm Thạch Văn</t>
+          <t>Nguyễn Tôn Thị</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/09/1990</t>
+          <t>05/07/1972</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0397038908</t>
+          <t>0946686190</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -786,47 +802,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Từ Đức</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/06/2005</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sán Chay</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0395234692</t>
+          <t>0946897829</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Lào Cai</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -836,7 +852,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -846,28 +862,44 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nguyễn Từ Đức</t>
+          <t>Nguyễn Nghiêm Thành</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>02/10/1990</t>
+          <t>10/29/1994</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0915700720</t>
+          <t>0309530704</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Lê Uông Đức</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>07/09/1990</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0371893911</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -887,12 +919,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phí Hữu</t>
+          <t>Hứa Minh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -902,87 +934,71 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/16/1999</t>
+          <t>03/06/2001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0734242194</t>
+          <t>0868815687</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Vũ Từ Hữu</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>07/16/1976</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0871622864</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Hoàng Trịnh Văn</t>
+          <t>Vũ Trịnh Đức</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/21/1962</t>
+          <t>06/13/1980</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0990771960</t>
+          <t>0391296657</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>Kế toán</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1004,12 +1020,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mai Đình</t>
+          <t>Đào Hữu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1019,32 +1035,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/24/2001</t>
+          <t>08/25/2003</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0309101615</t>
+          <t>0967132642</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1068,22 +1084,22 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Hoàng Đinh Thành</t>
+          <t>Phạm Đào Văn</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>03/25/1969</t>
+          <t>12/05/1982</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0876546330</t>
+          <t>0713005519</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1105,47 +1121,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Khương Quốc</t>
+          <t>Vũ Hữu</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/05/2000</t>
+          <t>03/13/2006</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0947962683</t>
+          <t>0914948048</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Bắc Ninh</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1165,37 +1181,37 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hoàng Ngô Đức</t>
+          <t>Trần Thi Hữu</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>02/01/1962</t>
+          <t>06/25/1973</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0897097195</t>
+          <t>0380750250</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Nhân Viên Bán Hàng</t>
+          <t>Kiểm toán</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Vũ Dương Thành</t>
+          <t>Nguyễn Trương Minh</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>09/07/1985</t>
+          <t>09/24/1975</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0739203631</t>
+          <t>0996179380</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1222,47 +1238,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Đào Thị</t>
+          <t>Hứa Văn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>04/24/2002</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0737251215</t>
+          <t>0780836879</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1282,22 +1298,22 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lê Đào Quốc</t>
+          <t>Bùi Chu Quốc</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01/27/1968</t>
+          <t>01/26/1991</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0395640814</t>
+          <t>0972495585</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
+          <t>Kỹ sư giám sát</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1323,12 +1339,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tiêu Văn</t>
+          <t>Trịnh Minh</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1338,32 +1354,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/24/2005</t>
+          <t>11/12/2003</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0795263844</t>
+          <t>0750113020</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1383,22 +1399,22 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bùi Tôn Hồng</t>
+          <t>Hoàng Trịnh Đức</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/04/1975</t>
+          <t>02/10/1994</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0360147702</t>
+          <t>0344335233</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
+          <t>Kiểm toán</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1424,47 +1440,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Lý Minh</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/23/2000</t>
+          <t>10/01/2004</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Hrê</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0805829968</t>
+          <t>0349403226</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Quảng Ninh</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1484,42 +1500,42 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lê Từ Đình</t>
+          <t>Phạm Thạch Thị</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>06/20/1957</t>
+          <t>03/24/1985</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0358571520</t>
+          <t>0357687826</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Kiểm toán</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Hữu</t>
+          <t>Lê Mai Hồng</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/20/1993</t>
+          <t>03/07/1965</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0870039563</t>
+          <t>0322755128</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
+          <t>Kế toán</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1541,47 +1557,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Quách Minh</t>
+          <t>Nghiêm Minh</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/23/2003</t>
+          <t>01/23/2005</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Chu Ru</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0710777901</t>
+          <t>0716760875</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1591,42 +1607,42 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Nguyễn Nghiêm Thành</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>06/27/1976</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0736591536</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dương Lương Đức</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>05/19/1954</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0979199801</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1642,47 +1658,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phan Hữu</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/05/2006</t>
+          <t>08/16/2006</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0383119875</t>
+          <t>0744894225</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1702,22 +1718,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bùi Trịnh Thành</t>
+          <t>Mai Ngô Đình</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>08/24/1973</t>
+          <t>08/22/1962</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0809713419</t>
+          <t>0820198790</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
+          <t>Chuyên viên bán hàng trực tuyến</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1743,47 +1759,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uông Hồng</t>
+          <t>Uông Đức</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/19/2001</t>
+          <t>07/16/2002</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0841564752</t>
+          <t>0954054542</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1803,22 +1819,22 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Phạm Trịnh Đình</t>
+          <t>Nguyễn Tô Đức</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/29/1959</t>
+          <t>11/22/1988</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0324670723</t>
+          <t>0982283625</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1844,47 +1860,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phí Đình</t>
+          <t>Đoàn Quốc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/10/2000</t>
+          <t>12/05/2002</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0822336151</t>
+          <t>0340814253</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Lâm Đồng</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1899,7 +1915,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1912,22 +1928,22 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Nguyễn Chu Thành</t>
+          <t>Dương Bạch Thành</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>12/09/1972</t>
+          <t>03/11/1963</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0874704189</t>
+          <t>0371661322</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>Giáo viên</t>
         </is>
       </c>
     </row>
@@ -1945,22 +1961,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sơn Thành</t>
+          <t>Chu Văn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>06/22/2002</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1970,22 +1986,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0757936465</t>
+          <t>0866512881</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2009,22 +2025,22 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Nguyễn Chu Thị</t>
+          <t>Vũ Chu Quốc</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/26/1962</t>
+          <t>05/02/1994</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0946781070</t>
+          <t>0766476881</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
+          <t>Biên dịch viên</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -2046,22 +2062,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Khương Hồng</t>
+          <t>Uông Hồng</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/25/2002</t>
+          <t>04/08/1999</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2071,83 +2087,67 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0365062981</t>
+          <t>0944796599</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>Bắc Kạn</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Dương Tôn Đức</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>09/28/1968</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0862659599</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Phạm Tăng Quốc</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>02/08/1983</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0396630166</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Trần Đỗ Văn</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>06/06/1963</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0767660050</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>Mai Đức</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/14/2004</t>
+          <t>05/23/2002</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2188,32 +2188,32 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0801249604</t>
+          <t>0950282205</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Nghệ An</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2221,30 +2221,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Hoàng Chu Hồng</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>01/09/1956</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0828537726</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Vũ Phùng Hữu</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>07/24/1968</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0352546710</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -2264,22 +2264,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Tạ Văn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/06/2004</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2289,22 +2289,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>10/10/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0741735510</t>
+          <t>0961407686</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Bắc Ninh</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2328,22 +2328,22 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Mai Đào Văn</t>
+          <t>Vũ Từ Thành</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>02/09/1982</t>
+          <t>04/17/1967</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0726085115</t>
+          <t>0920769737</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Nhân viên kinh doanh</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2365,22 +2365,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Đinh Thành</t>
+          <t>Trương Thị</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/05/2004</t>
+          <t>05/04/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2390,22 +2390,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0730036249</t>
+          <t>0870328874</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2415,42 +2415,42 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Vũ Thạch Quốc</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>05/18/1970</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0946438110</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Bùi Phan Đức</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>04/03/1994</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0798664697</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2466,22 +2466,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Từ Văn</t>
+          <t>Thái Văn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/16/2005</t>
+          <t>12/18/1998</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2491,77 +2491,61 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>10/12/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0320729361</t>
+          <t>0366620748</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Mai Lê Quốc</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>12/30/1975</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0721371221</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Hoàng Đinh Thị</t>
+          <t>Trần Từ Đức</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>05/06/1994</t>
+          <t>10/05/1993</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0303773689</t>
+          <t>0313404007</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Nhân viên khách sạn</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -2583,22 +2567,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Từ Thành</t>
+          <t>Đinh Đức</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/20/2000</t>
+          <t>07/15/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2608,22 +2592,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0959240210</t>
+          <t>0386417735</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2638,7 +2622,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2651,22 +2635,22 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Đặng Khương Đức</t>
+          <t>Mai Phạm Đình</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>09/09/1964</t>
+          <t>11/07/1987</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0885089474</t>
+          <t>0933147354</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
+          <t>Quản lý sản xuất</t>
         </is>
       </c>
     </row>
@@ -2684,108 +2668,92 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lê Thị</t>
+          <t>Lương Đức</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/10/1999</t>
+          <t>08/24/2005</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0348109975</t>
+          <t>0783513121</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Đà Nẵng</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Trần Hà Đức</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>01/19/1972</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0884293195</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Hoàng Quách Hồng</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>10/02/1960</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0330338438</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Dương Tôn Đức</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>10/09/1960</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0997872456</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2801,92 +2769,108 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lưu Văn</t>
+          <t>Uông Thành</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03/19/2005</t>
+          <t>04/09/2001</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>10/09/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0772069683</t>
+          <t>0348031253</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Lê Trịnh Thị</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>11/04/1962</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0386127450</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Trần Hứa Hữu</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>08/14/1979</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0910067240</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Nhà tư vấn tài chính</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Nguyễn Phí Minh</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>07/31/1993</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0953919183</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -2902,22 +2886,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Võ Hồng</t>
+          <t>Đoàn Hữu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/22/2000</t>
+          <t>06/27/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2932,17 +2916,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0886668827</t>
+          <t>0843716415</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2952,7 +2936,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2962,28 +2946,44 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Đặng Vũ Đức</t>
+          <t>Phạm Hồ Thành</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/04/1972</t>
+          <t>01/28/1975</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0886156284</t>
+          <t>0954468431</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+          <t>Kiến trúc sư phần mềm</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dương Đoàn Đình</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>02/26/1991</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0345099120</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Nhà báo</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -3003,52 +3003,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phí Đức</t>
+          <t>Thi Đình</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/26/2006</t>
+          <t>10/20/2003</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0817598651</t>
+          <t>0713059956</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3061,28 +3061,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>06/08/1984</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0852979673</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Bùi Hà Văn</t>
+          <t>Bùi Sơn Đức</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/02/1975</t>
+          <t>06/17/1985</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0701529368</t>
+          <t>0778377482</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
+          <t>Thực tập sinh giáo dục</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3104,47 +3120,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tôn Thị</t>
+          <t>Uông Đình</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/28/2006</t>
+          <t>07/14/2003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0922455912</t>
+          <t>0359920446</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Ninh Bình</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3164,22 +3180,22 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mai Chu Thành</t>
+          <t>Mai Trịnh Thị</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/17/1980</t>
+          <t>08/27/1976</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0947772896</t>
+          <t>0772653109</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>Dược sĩ</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3205,22 +3221,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hứa Văn</t>
+          <t>Đoàn Văn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2003</t>
+          <t>04/06/2003</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3230,22 +3246,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0894048219</t>
+          <t>0989747218</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Cao Bằng</t>
+          <t>Hà Nội</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3265,42 +3281,42 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Phạm Huỳnh Thị</t>
+          <t>Hoàng Quách Minh</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/22/1969</t>
+          <t>05/31/1964</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0832223724</t>
+          <t>0871966096</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Dương Lê Thị</t>
+          <t>Lê Phùng Hồng</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>07/17/1992</t>
+          <t>01/16/1962</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0328192653</t>
+          <t>0325553406</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Trưởng phòng kinh doanh</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -3322,22 +3338,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thi Hữu</t>
+          <t>Thạch Thành</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/12/1999</t>
+          <t>10/01/2004</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3347,63 +3363,63 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0386575444</t>
+          <t>0358652688</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Mai Thạch Đức</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>03/09/1988</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0995591505</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Mai Thi Văn</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>12/28/1983</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0318696901</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Y tá</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3423,47 +3439,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tiêu Quốc</t>
+          <t>Khương Thị</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>10/19/2000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Pu Péo</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0970012688</t>
+          <t>0986018050</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3473,7 +3489,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3483,44 +3499,28 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mai Hứa Hồng</t>
+          <t>Bùi Tôn Quốc</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/19/1973</t>
+          <t>02/28/1988</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0878797571</t>
+          <t>0727141277</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Lê Nghiêm Hồng</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>05/12/1964</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0818000224</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư</t>
-        </is>
-      </c>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -3540,22 +3540,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trịnh Quốc</t>
+          <t>Phí Hữu</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/27/2000</t>
+          <t>10/02/2004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3565,22 +3565,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0317946814</t>
+          <t>0360522150</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Thái Nguyên</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3600,22 +3600,22 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Mai Vương Thành</t>
+          <t>Đặng Trịnh Đình</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/05/1985</t>
+          <t>08/20/1990</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0315977127</t>
+          <t>0861916663</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3641,22 +3641,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/09/2003</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0878014355</t>
+          <t>0720579992</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3691,42 +3691,42 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Phạm Đỗ Hữu</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>08/24/1967</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0745373247</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Nguyễn Tô Hồng</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>02/06/1970</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0871401309</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3742,47 +3742,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Đào Đình</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/15/2003</t>
+          <t>03/02/1999</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0703969291</t>
+          <t>0809901961</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3802,44 +3802,28 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Vũ Võ Thành</t>
+          <t>Đặng Đặng Văn</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/10/1965</t>
+          <t>10/12/1956</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0969593684</t>
+          <t>0755646720</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Y tá</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Nguyễn Ngô Đình</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>05/04/1954</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0702337977</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
+          <t>Thợ xây</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -3859,22 +3843,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phí Hồng</t>
+          <t>Tiêu Đức</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/19/2005</t>
+          <t>03/23/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3884,83 +3868,67 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0962777942</t>
+          <t>0386621553</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Nguyễn Tô Hồng</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>05/19/1962</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0873842667</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Trần Tôn Quốc</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>10/30/1965</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0877505963</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Dương Đào Thị</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>05/26/1961</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0871665011</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3976,22 +3944,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hoàng Thành</t>
+          <t>Thạch Đình</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/17/1998</t>
+          <t>05/30/2002</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4001,22 +3969,22 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0726824687</t>
+          <t>0311542945</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4036,22 +4004,22 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Vũ Uông Hồng</t>
+          <t>Vũ Bạch Văn</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/03/1954</t>
+          <t>04/15/1962</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0758668307</t>
+          <t>0989750587</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Tư vấn khách hàng</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4077,52 +4045,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Uông Hữu</t>
+          <t>Sơn Đình</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/11/2002</t>
+          <t>04/17/1999</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/19/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0981161964</t>
+          <t>0750056753</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Đà Nẵng</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4132,37 +4100,37 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Hoàng Phí Thành</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>06/13/1986</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0809839403</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Lê Chu Hồng</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>06/04/1955</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>0861250897</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4178,22 +4146,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Đinh Đức</t>
+          <t>Tôn Minh</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/13/1998</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4203,22 +4171,22 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0939483528</t>
+          <t>0816309757</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Tiền Giang</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4228,7 +4196,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4238,28 +4206,44 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Nguyễn Khương Hồng</t>
+          <t>Lê Phí Hồng</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>09/21/1960</t>
+          <t>01/24/1954</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0931315195</t>
+          <t>0385053946</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Hoàng Trịnh Thành</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>11/28/1959</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0882422619</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -4279,22 +4263,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thạch Quốc</t>
+          <t>Quách Đình</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/15/2003</t>
+          <t>10/28/2000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4304,22 +4288,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>La Chí</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10/12/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0852909407</t>
+          <t>0945027989</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4329,42 +4313,42 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Bùi Vương Hữu</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>08/06/1981</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0371172381</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Hoàng Đoàn Hữu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>11/15/1971</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0319047370</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Y tá</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4380,57 +4364,57 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vương Đình</t>
+          <t>Vương Hồng</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>02/29/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Mường</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>09/29/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0750345429</t>
+          <t>0732672697</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Yên Bái</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4438,30 +4422,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Lê Chu Hữu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>10/02/1974</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>0918932069</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Vũ Vương Minh</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>12/29/1964</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0307321616</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -4481,22 +4465,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trịnh Hữu</t>
+          <t>Thạch Đình</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/19/2000</t>
+          <t>03/30/2003</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4506,22 +4490,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Cơ Ho</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0396147103</t>
+          <t>0913126423</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4531,7 +4515,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4541,44 +4525,28 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Hoàng Đinh Hồng</t>
+          <t>Trần Phùng Đình</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01/25/1988</t>
+          <t>08/26/1959</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0984301037</t>
+          <t>0827833638</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Đặng Chu Đình</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>12/15/1958</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0767518097</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -4598,22 +4566,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Huỳnh Văn</t>
+          <t>Hứa Thị</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/03/1998</t>
+          <t>05/25/2003</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4623,83 +4591,67 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0323359860</t>
+          <t>0702890387</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Phú Thọ</t>
+          <t>Quảng Nam</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Dương Quách Thị</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>01/30/1985</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0950250804</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Bùi Uông Quốc</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>01/28/1975</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0789617950</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Phạm Dương Quốc</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>05/19/1959</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0368108194</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4715,22 +4667,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Phạm Đức</t>
+          <t>Trần Đức</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/30/1999</t>
+          <t>07/30/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4740,22 +4692,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0771287529</t>
+          <t>0378059924</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Hải Dương</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4775,22 +4727,22 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Phạm Đào Thành</t>
+          <t>Vũ Trịnh Quốc</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01/29/1957</t>
+          <t>05/16/1994</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0773629556</t>
+          <t>0307678330</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Chuyên viên nhân sự</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,47 +584,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phùng Thị</t>
+          <t>Hà Văn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/24/2005</t>
+          <t>02/19/2001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10/28/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0782091523</t>
+          <t>0795925675</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -644,42 +644,42 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Dương Tăng Quốc</t>
+          <t>Hoàng Nghiêm Quốc</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>02/16/1992</t>
+          <t>12/06/1989</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0846624357</t>
+          <t>0893620877</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
+          <t>Chuyên viên phân tích thị trường</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Đặng Hà Minh</t>
+          <t>Phạm Nghiêm Minh</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>03/21/1977</t>
+          <t>04/23/1980</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0393474407</t>
+          <t>0721466600</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
+          <t>Luật sư</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -701,52 +701,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quách Đức</t>
+          <t>Tạ Đức</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/17/2004</t>
+          <t>05/31/2000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10/18/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0862799616</t>
+          <t>0368962160</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Long An</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -759,28 +759,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Nguyễn Khương Hữu</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>08/20/1993</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0730750190</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Nguyễn Tôn Thị</t>
+          <t>Bùi Trịnh Hữu</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/07/1972</t>
+          <t>01/25/1979</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0946686190</t>
+          <t>0933284562</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -802,12 +818,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -817,7 +833,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>06/26/1999</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -827,22 +843,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>M nông</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0946897829</t>
+          <t>0756428690</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -852,7 +868,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -862,44 +878,28 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nguyễn Nghiêm Thành</t>
+          <t>Vũ Đoàn Minh</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10/29/1994</t>
+          <t>11/20/1975</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0309530704</t>
+          <t>0877714666</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Lê Uông Đức</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>07/09/1990</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0371893911</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -919,52 +919,52 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hứa Minh</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/06/2001</t>
+          <t>10/01/1999</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0868815687</t>
+          <t>0737459350</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -977,28 +977,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Dương Khương Thị</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>11/14/1967</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0716605726</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Đức</t>
+          <t>Hoàng Uông Hữu</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/13/1980</t>
+          <t>08/09/1975</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0391296657</t>
+          <t>0746900153</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Kế toán</t>
+          <t>Chuyên viên nhân sự</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1020,47 +1036,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đào Hữu</t>
+          <t>Tiêu Đình</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/25/2003</t>
+          <t>04/01/2006</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0967132642</t>
+          <t>0831010220</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1070,42 +1086,42 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Phạm Đào Văn</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>12/05/1982</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0713005519</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Vũ Khương Minh</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>01/07/1993</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0747633395</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1121,22 +1137,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vũ Hữu</t>
+          <t>Võ Hồng</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/13/2006</t>
+          <t>06/22/2003</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1146,83 +1162,67 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0914948048</t>
+          <t>0378588526</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Hà Nam</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Trần Thi Hữu</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>06/25/1973</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0380750250</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Nguyễn Trương Minh</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>09/24/1975</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0996179380</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Nguyễn Vương Đức</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>03/07/1990</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0803167014</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1238,22 +1238,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hứa Văn</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>04/24/2002</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0780836879</t>
+          <t>0397367560</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1293,37 +1293,37 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Bùi Chu Quốc</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>01/26/1991</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0972495585</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Thị</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>11/26/1955</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0305588080</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1339,47 +1339,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trịnh Minh</t>
+          <t>Dương Văn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/12/2003</t>
+          <t>10/21/2002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0750113020</t>
+          <t>0989677038</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1399,28 +1399,44 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hoàng Trịnh Đức</t>
+          <t>Vũ Đỗ Hữu</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/10/1994</t>
+          <t>03/14/1976</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0344335233</t>
+          <t>0308594777</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Trần Hồ Hữu</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>06/05/1989</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0845774300</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1440,22 +1456,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lý Minh</t>
+          <t>Trịnh Hữu</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/01/2004</t>
+          <t>11/07/2006</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1465,83 +1481,67 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0349403226</t>
+          <t>0801956746</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Quảng Ninh</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Phạm Thạch Thị</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>03/24/1985</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0357687826</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Lê Mai Hồng</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>03/07/1965</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0322755128</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Phạm Tô Hồng</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>03/09/1975</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0882190456</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1557,22 +1557,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nghiêm Minh</t>
+          <t>Đinh Hồng</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/23/2005</t>
+          <t>10/10/2004</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1582,22 +1582,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0716760875</t>
+          <t>0700524570</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Thái Bình</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1607,42 +1607,42 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Dương Lương Đức</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>05/19/1954</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0979199801</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Trần Thạch Văn</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>06/15/1966</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0732632127</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1658,22 +1658,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Tăng Văn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/16/2006</t>
+          <t>02/09/2004</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1683,22 +1683,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0744894225</t>
+          <t>0864006947</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Nam Định</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1718,28 +1718,44 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Mai Ngô Đình</t>
+          <t>Nguyễn Bùi Hữu</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>08/22/1962</t>
+          <t>04/20/1971</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0820198790</t>
+          <t>0334096494</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Đặng Quách Minh</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>09/30/1958</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0395142707</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Nhân viên ngân hàng</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1759,52 +1775,52 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uông Đức</t>
+          <t>Từ Đình</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/16/2002</t>
+          <t>08/18/2003</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0954054542</t>
+          <t>0854721289</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1814,37 +1830,37 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Nguyễn Tô Đức</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>11/22/1988</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0982283625</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Mai Lương Quốc</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>05/15/1958</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0931665864</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1860,92 +1876,108 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Đoàn Quốc</t>
+          <t>Vũ Thành</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12/05/2002</t>
+          <t>06/16/2005</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0340814253</t>
+          <t>0768075441</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Dương Bạch Thành</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>03/11/1963</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0371661322</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Đình</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>09/01/1988</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0350985066</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Hoàng Hà Đức</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>03/31/1954</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0924841579</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1961,47 +1993,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chu Văn</t>
+          <t>Phạm Văn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/22/2002</t>
+          <t>08/31/2003</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0866512881</t>
+          <t>0735680722</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2011,42 +2043,42 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Vũ Chu Quốc</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>05/02/1994</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0766476881</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Lê Phí Đức</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>03/21/1966</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0891782339</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Nhà tư vấn tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -2062,22 +2094,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Uông Hồng</t>
+          <t>Phùng Đình</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>11/10/1998</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2087,22 +2119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0944796599</t>
+          <t>0793004404</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bắc Kạn</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2117,7 +2149,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -2130,22 +2162,22 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Trần Đỗ Văn</t>
+          <t>Vũ Phạm Đức</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>06/06/1963</t>
+          <t>03/11/1972</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0767660050</t>
+          <t>0914276366</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Kỹ sư phần mềm</t>
         </is>
       </c>
     </row>
@@ -2163,22 +2195,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mai Đức</t>
+          <t>Tôn Quốc</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/23/2002</t>
+          <t>05/12/1999</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2188,27 +2220,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0950282205</t>
+          <t>0308019849</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2218,37 +2250,37 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Vũ Phùng Hữu</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>07/24/1968</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0352546710</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Bùi Đào Thành</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>07/31/1984</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0711564743</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2264,22 +2296,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tạ Văn</t>
+          <t>Chu Minh</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>02/28/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2289,32 +2321,32 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/10/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0961407686</t>
+          <t>0911966091</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2322,30 +2354,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Vũ Từ Thành</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>04/17/1967</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0920769737</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Dương Trịnh Hồng</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>04/12/1966</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0877272117</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2365,22 +2397,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trương Thị</t>
+          <t>Vương Hữu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/04/2006</t>
+          <t>09/13/2002</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2390,27 +2422,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/26/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0870328874</t>
+          <t>0767561442</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2420,37 +2452,37 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Nguyễn Đinh Đình</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>04/24/1969</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0752982607</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Bùi Phan Đức</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>04/03/1994</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0798664697</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2466,22 +2498,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thái Văn</t>
+          <t>Thạch Văn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/18/1998</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2491,32 +2523,32 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10/12/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0366620748</t>
+          <t>0870587578</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2524,30 +2556,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Trần Từ Đức</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>10/05/1993</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0313404007</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Lê Đào Thành</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>07/27/1981</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0836847138</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2567,22 +2599,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Đinh Đức</t>
+          <t>Trần Đình</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/15/2006</t>
+          <t>04/17/2000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2592,22 +2624,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Giáy</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0386417735</t>
+          <t>0780137895</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2622,7 +2654,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2635,22 +2667,22 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Mai Phạm Đình</t>
+          <t>Nguyễn Hà Hữu</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>11/07/1987</t>
+          <t>02/25/1986</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0933147354</t>
+          <t>0975585300</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
     </row>
@@ -2668,92 +2700,108 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lương Đức</t>
+          <t>Phí Hồng</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/24/2005</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0783513121</t>
+          <t>0776709326</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Dương Tôn Đức</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>10/09/1960</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0997872456</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Bùi Thạch Hữu</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>08/27/1955</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0307928177</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Nguyễn Phùng Đức</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>06/13/1970</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0835550138</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2769,47 +2817,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Uông Thành</t>
+          <t>Ngô Quốc</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/09/2001</t>
+          <t>01/18/2001</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0348031253</t>
+          <t>0356408605</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2819,7 +2867,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2829,44 +2877,28 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Trần Hứa Hữu</t>
+          <t>Bùi Thi Đức</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>08/14/1979</t>
+          <t>08/08/1977</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0910067240</t>
+          <t>0331868496</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Nguyễn Phí Minh</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>07/31/1993</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0953919183</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
+          <t>Nhân viên kinh doanh</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2886,22 +2918,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đoàn Hữu</t>
+          <t>Đào Hồng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/27/2005</t>
+          <t>06/13/1999</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2911,22 +2943,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Hrê</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0843716415</t>
+          <t>0790669547</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2936,7 +2968,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2946,44 +2978,28 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Phạm Hồ Thành</t>
+          <t>Bùi Quách Đức</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>01/28/1975</t>
+          <t>11/30/1986</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0954468431</t>
+          <t>0334635614</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Dương Đoàn Đình</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>02/26/1991</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0345099120</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
           <t>Nhà báo</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -3003,12 +3019,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Thi Đình</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3018,7 +3034,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/20/2003</t>
+          <t>12/10/2002</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3028,77 +3044,61 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10/28/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0713059956</t>
+          <t>0946598025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Nguyễn Trịnh Minh</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>06/08/1984</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0852979673</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Bùi Sơn Đức</t>
+          <t>Dương Nghiêm Hồng</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>06/17/1985</t>
+          <t>02/28/1991</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0778377482</t>
+          <t>0943274649</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3120,47 +3120,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Uông Đình</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/14/2003</t>
+          <t>02/07/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0359920446</t>
+          <t>0799358847</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3180,28 +3180,44 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mai Trịnh Thị</t>
+          <t>Vũ Thạch Văn</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>08/27/1976</t>
+          <t>02/03/1994</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0772653109</t>
+          <t>0307677147</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Trần Từ Hồng</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>02/21/1978</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0318242943</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3221,22 +3237,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Đoàn Văn</t>
+          <t>Phan Văn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/06/2003</t>
+          <t>06/25/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3246,22 +3262,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0989747218</t>
+          <t>0352536956</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Hà Nội</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3271,7 +3287,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3281,44 +3297,28 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Hoàng Quách Minh</t>
+          <t>Phạm Quách Hồng</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/31/1964</t>
+          <t>04/10/1961</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0871966096</t>
+          <t>0799452082</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Lê Phùng Hồng</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>01/16/1962</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0325553406</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -3338,22 +3338,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thạch Thành</t>
+          <t>Nghiêm Thành</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/01/2004</t>
+          <t>05/19/2004</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3373,12 +3373,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0358652688</t>
+          <t>0394399672</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Lào Cai</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3402,22 +3402,22 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Mai Thi Văn</t>
+          <t>Mai Ngô Văn</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/28/1983</t>
+          <t>10/27/1979</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0318696901</t>
+          <t>0329314963</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Y tá</t>
+          <t>Kỹ sư sản xuất</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -3439,22 +3439,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Khương Thị</t>
+          <t>Sơn Văn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/19/2000</t>
+          <t>05/11/2000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3464,22 +3464,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0986018050</t>
+          <t>0824863917</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Hưng Yên</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bùi Tôn Quốc</t>
+          <t>Lê Khương Thành</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/28/1988</t>
+          <t>12/24/1965</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0727141277</t>
+          <t>0947258153</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Kỹ sư giám sát</t>
+          <t>Tester</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3540,32 +3540,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phí Hữu</t>
+          <t>Thi Thành</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/02/2004</t>
+          <t>06/26/2004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Mường</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3575,53 +3575,53 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0360522150</t>
+          <t>0305293446</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Đặng Trịnh Đình</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>08/20/1990</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0861916663</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Phạm Đào Quốc</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>03/20/1979</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0751100140</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3641,42 +3641,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Vương Quốc</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0720579992</t>
+          <t>0851285552</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3705,22 +3705,22 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Nguyễn Tô Hồng</t>
+          <t>Hoàng Tôn Đức</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/06/1970</t>
+          <t>06/05/1965</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0871401309</t>
+          <t>0358353653</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Nhà thiết kế đồ họa</t>
+          <t>Công nhân sản xuất</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -3742,22 +3742,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Đào Đình</t>
+          <t>Vũ Quốc</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03/02/1999</t>
+          <t>07/24/2004</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3767,22 +3767,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0809901961</t>
+          <t>0353072609</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Thái Nguyên</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3802,28 +3802,44 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Đặng Đặng Văn</t>
+          <t>Phạm Quách Văn</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>10/12/1956</t>
+          <t>09/15/1988</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0755646720</t>
+          <t>0807891446</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+          <t>Y tá</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Trần Sơn Minh</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>11/24/1990</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0775651755</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -3843,22 +3859,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tiêu Đức</t>
+          <t>Quách Đình</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>03/23/2006</t>
+          <t>12/29/1998</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3868,22 +3884,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0386621553</t>
+          <t>0328413282</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3893,42 +3909,42 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Dương Đào Thị</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>05/26/1961</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>0871665011</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Phạm Mai Thị</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>09/07/1993</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0319508184</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3944,22 +3960,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Thạch Đình</t>
+          <t>Phí Văn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/30/2002</t>
+          <t>05/02/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3969,27 +3985,27 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0311542945</t>
+          <t>0396957297</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Gia Lai</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3999,37 +4015,37 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Vũ Bạch Văn</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>04/15/1962</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0989750587</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Tư vấn khách hàng</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Hoàng Quách Hồng</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>01/02/1976</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0829476463</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4045,22 +4061,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sơn Đình</t>
+          <t>Tiêu Minh</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/17/1999</t>
+          <t>12/16/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4070,22 +4086,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10/19/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0750056753</t>
+          <t>0339666800</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Đắk Lắk</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4095,7 +4111,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4105,28 +4121,44 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Hoàng Phí Thành</t>
+          <t>Mai Đoàn Quốc</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>06/13/1986</t>
+          <t>05/04/1958</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0809839403</t>
+          <t>0995080467</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Bùi Sơn Quốc</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>09/11/1981</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0903060528</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -4146,108 +4178,92 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Vương Quốc</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>06/13/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0816309757</t>
+          <t>0973482085</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Tiền Giang</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Lê Phí Hồng</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>01/24/1954</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0385053946</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Hoàng Trịnh Thành</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>11/28/1959</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0882422619</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Mai Quách Đình</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>03/01/1969</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>0939707645</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -4263,22 +4279,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Đoàn Hữu</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/28/2000</t>
+          <t>04/08/2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4288,27 +4304,27 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0945027989</t>
+          <t>0996703520</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Phú Thọ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4321,28 +4337,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Dương Khương Thành</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>03/11/1959</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0733715094</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Hoàng Đoàn Hữu</t>
+          <t>Nguyễn Nghiêm Thị</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>11/15/1971</t>
+          <t>05/13/1955</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0319047370</t>
+          <t>0806644146</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Y tá</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -4364,47 +4396,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vương Hồng</t>
+          <t>Tạ Đức</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/29/2000</t>
+          <t>09/24/1999</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10/28/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0732672697</t>
+          <t>0812624067</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4424,22 +4456,22 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Vũ Vương Minh</t>
+          <t>Vũ Bạch Thị</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>12/29/1964</t>
+          <t>06/22/1954</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0307321616</t>
+          <t>0389767407</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Luật sư</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4465,52 +4497,52 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Thạch Đình</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/30/2003</t>
+          <t>06/18/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0913126423</t>
+          <t>0313156620</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4520,37 +4552,37 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Trần Phùng Đình</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>08/26/1959</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0827833638</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Trần Thi Đức</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>12/15/1983</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0949990277</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4566,47 +4598,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hứa Thị</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/25/2003</t>
+          <t>03/14/2003</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0702890387</t>
+          <t>0388439676</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4621,7 +4653,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -4634,22 +4666,22 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Phạm Dương Quốc</t>
+          <t>Dương Trần Hữu</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>05/19/1959</t>
+          <t>07/11/1982</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0368108194</t>
+          <t>0378840440</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
     </row>
@@ -4667,88 +4699,88 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A4</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trần Đức</t>
+          <t>Tôn Minh</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07/30/2006</t>
+          <t>03/23/1999</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/18/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0378059924</t>
+          <t>0901747139</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Hải Dương</t>
+          <t>Quảng Nam</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Vũ Trịnh Quốc</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>05/16/1994</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0307678330</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Mai Tôn Minh</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>12/11/1974</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0734034055</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,22 +584,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Quách Quốc</t>
+          <t>Hà Văn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/21/2006</t>
+          <t>02/19/2001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -609,27 +609,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Phù Lá</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0938810037</t>
+          <t>0795925675</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -642,28 +642,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Hoàng Nghiêm Quốc</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>12/06/1989</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0893620877</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Lê Thi Văn</t>
+          <t>Phạm Nghiêm Minh</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>04/06/1991</t>
+          <t>04/23/1980</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0998382572</t>
+          <t>0721466600</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>Luật sư</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -685,52 +701,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thái Đình</t>
+          <t>Tạ Đức</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/15/2005</t>
+          <t>05/31/2000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0860285307</t>
+          <t>0368962160</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Long An</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -743,28 +759,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Nguyễn Khương Hữu</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>08/20/1993</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0730750190</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Phạm Thạch Văn</t>
+          <t>Bùi Trịnh Hữu</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/09/1990</t>
+          <t>01/25/1979</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0397038908</t>
+          <t>0933284562</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -786,47 +818,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Từ Đức</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/06/2005</t>
+          <t>06/26/1999</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sán Chay</t>
+          <t>M nông</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0395234692</t>
+          <t>0756428690</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Lào Cai</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -846,22 +878,22 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nguyễn Từ Đức</t>
+          <t>Vũ Đoàn Minh</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>02/10/1990</t>
+          <t>11/20/1975</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0915700720</t>
+          <t>0877714666</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Thực tập sinh giáo dục</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -887,22 +919,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phí Hữu</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/16/1999</t>
+          <t>10/01/1999</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -912,22 +944,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/13/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0734242194</t>
+          <t>0737459350</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -947,42 +979,42 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vũ Từ Hữu</t>
+          <t>Dương Khương Thị</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>07/16/1976</t>
+          <t>11/14/1967</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0871622864</t>
+          <t>0716605726</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Kỹ sư phần mềm</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Hoàng Trịnh Văn</t>
+          <t>Hoàng Uông Hữu</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/21/1962</t>
+          <t>08/09/1975</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0990771960</t>
+          <t>0746900153</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>Chuyên viên nhân sự</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1004,22 +1036,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mai Đình</t>
+          <t>Tiêu Đình</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/24/2001</t>
+          <t>04/01/2006</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1029,22 +1061,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>09/28/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0309101615</t>
+          <t>0831010220</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1054,42 +1086,42 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Hoàng Đinh Thành</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>03/25/1969</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0876546330</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Vũ Khương Minh</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>01/07/1993</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0747633395</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1105,108 +1137,92 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Khương Quốc</t>
+          <t>Võ Hồng</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/05/2000</t>
+          <t>06/22/2003</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0947962683</t>
+          <t>0378588526</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Hà Nam</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Hoàng Ngô Đức</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>02/01/1962</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0897097195</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Vũ Dương Thành</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>09/07/1985</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0739203631</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Nguyễn Vương Đức</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>03/07/1990</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0803167014</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1222,52 +1238,52 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Đào Thị</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/20/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0737251215</t>
+          <t>0397367560</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1277,37 +1293,37 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Lê Đào Quốc</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>01/27/1968</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0395640814</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Thị</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>11/26/1955</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0305588080</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1323,22 +1339,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tiêu Văn</t>
+          <t>Dương Văn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/24/2005</t>
+          <t>10/21/2002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1348,22 +1364,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0795263844</t>
+          <t>0989677038</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1373,7 +1389,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1383,28 +1399,44 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bùi Tôn Hồng</t>
+          <t>Vũ Đỗ Hữu</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/04/1975</t>
+          <t>03/14/1976</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0360147702</t>
+          <t>0308594777</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Trần Hồ Hữu</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>06/05/1989</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0845774300</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1424,108 +1456,92 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Trịnh Hữu</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/23/2000</t>
+          <t>11/07/2006</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Hrê</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0805829968</t>
+          <t>0801956746</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Lê Từ Đình</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>06/20/1957</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0358571520</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Vũ Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>12/20/1993</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0870039563</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Phạm Tô Hồng</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>03/09/1975</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0882190456</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1541,47 +1557,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Quách Minh</t>
+          <t>Đinh Hồng</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/23/2003</t>
+          <t>10/10/2004</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Chu Ru</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0710777901</t>
+          <t>0700524570</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Thái Bình</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1596,7 +1612,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1609,22 +1625,22 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Nguyễn Nghiêm Thành</t>
+          <t>Trần Thạch Văn</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>06/27/1976</t>
+          <t>06/15/1966</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0736591536</t>
+          <t>0732632127</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Thợ xây</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
     </row>
@@ -1642,47 +1658,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phan Hữu</t>
+          <t>Tăng Văn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/05/2006</t>
+          <t>02/09/2004</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0383119875</t>
+          <t>0864006947</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Nam Định</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1692,7 +1708,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1702,28 +1718,44 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bùi Trịnh Thành</t>
+          <t>Nguyễn Bùi Hữu</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>08/24/1973</t>
+          <t>04/20/1971</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0809713419</t>
+          <t>0334096494</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Đặng Quách Minh</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>09/30/1958</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0395142707</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Nhân viên ngân hàng</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1743,22 +1775,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uông Hồng</t>
+          <t>Từ Đình</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/19/2001</t>
+          <t>08/18/2003</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1768,27 +1800,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0841564752</t>
+          <t>0854721289</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1798,37 +1830,37 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Phạm Trịnh Đình</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12/29/1959</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0324670723</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Dược sĩ</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Mai Lương Quốc</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>05/15/1958</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0931665864</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1844,22 +1876,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phí Đình</t>
+          <t>Vũ Thành</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/10/2000</t>
+          <t>06/16/2005</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1869,67 +1901,83 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0822336151</t>
+          <t>0768075441</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Nguyễn Chu Thành</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>12/09/1972</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0874704189</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Đình</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>09/01/1988</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0350985066</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>Thực tập sinh giáo dục</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Hoàng Hà Đức</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>03/31/1954</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0924841579</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1945,47 +1993,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sơn Thành</t>
+          <t>Phạm Văn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>08/31/2003</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0757936465</t>
+          <t>0735680722</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1995,42 +2043,42 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Nguyễn Chu Thị</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>12/26/1962</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0946781070</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Lê Phí Đức</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>03/21/1966</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0891782339</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Nhà tư vấn tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -2046,12 +2094,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Khương Hồng</t>
+          <t>Phùng Đình</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2061,7 +2109,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/25/2002</t>
+          <t>11/10/1998</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2071,83 +2119,67 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0365062981</t>
+          <t>0793004404</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Dương Tôn Đức</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>09/28/1968</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0862659599</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Phạm Tăng Quốc</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>02/08/1983</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0396630166</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Vũ Phạm Đức</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>03/11/1972</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0914276366</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2163,22 +2195,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>Tôn Quốc</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/14/2004</t>
+          <t>05/12/1999</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2188,22 +2220,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0801249604</t>
+          <t>0308019849</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Nghệ An</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2213,42 +2245,42 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Hoàng Chu Hồng</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>01/09/1956</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0828537726</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Bùi Đào Thành</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>07/31/1984</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0711564743</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2264,22 +2296,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Chu Minh</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/06/2004</t>
+          <t>02/28/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2289,32 +2321,32 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Tày</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0741735510</t>
+          <t>0911966091</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2322,30 +2354,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Mai Đào Văn</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>02/09/1982</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0726085115</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Nhân viên kinh doanh</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Dương Trịnh Hồng</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>04/12/1966</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0877272117</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2365,22 +2397,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Đinh Thành</t>
+          <t>Vương Hữu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/05/2004</t>
+          <t>09/13/2002</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2390,32 +2422,32 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/26/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0730036249</t>
+          <t>0767561442</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2423,30 +2455,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Vũ Thạch Quốc</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>05/18/1970</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0946438110</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Nguyễn Đinh Đình</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>04/24/1969</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0752982607</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -2466,22 +2498,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Từ Văn</t>
+          <t>Thạch Văn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/16/2005</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2491,22 +2523,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>09/26/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0320729361</t>
+          <t>0870587578</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Bắc Ninh</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2516,7 +2548,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2526,44 +2558,28 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mai Lê Quốc</t>
+          <t>Lê Đào Thành</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/30/1975</t>
+          <t>07/27/1981</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0721371221</t>
+          <t>0836847138</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Hoàng Đinh Thị</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>05/06/1994</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0303773689</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2583,22 +2599,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Từ Thành</t>
+          <t>Trần Đình</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/20/2000</t>
+          <t>04/17/2000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2608,22 +2624,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Giáy</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0959240210</t>
+          <t>0780137895</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2638,7 +2654,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2651,22 +2667,22 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Đặng Khương Đức</t>
+          <t>Nguyễn Hà Hữu</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>09/09/1964</t>
+          <t>02/25/1986</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0885089474</t>
+          <t>0975585300</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
     </row>
@@ -2684,22 +2700,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lê Thị</t>
+          <t>Phí Hồng</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/10/1999</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2709,22 +2725,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0348109975</t>
+          <t>0776709326</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2744,42 +2760,42 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Trần Hà Đức</t>
+          <t>Bùi Thạch Hữu</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>01/19/1972</t>
+          <t>08/27/1955</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0884293195</t>
+          <t>0307928177</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Nghệ sĩ</t>
+          <t>Trưởng phòng kinh doanh</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Hoàng Quách Hồng</t>
+          <t>Nguyễn Phùng Đức</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>10/02/1960</t>
+          <t>06/13/1970</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0330338438</t>
+          <t>0835550138</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Kỹ sư giám sát</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2801,22 +2817,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lưu Văn</t>
+          <t>Ngô Quốc</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03/19/2005</t>
+          <t>01/18/2001</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2826,27 +2842,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Pu Péo</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0772069683</t>
+          <t>0356408605</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2856,37 +2872,37 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Bùi Thi Đức</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>08/08/1977</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0331868496</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Nhân viên kinh doanh</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Lê Trịnh Thị</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>11/04/1962</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0386127450</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -2902,12 +2918,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Võ Hồng</t>
+          <t>Đào Hồng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2917,7 +2933,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/22/2000</t>
+          <t>06/13/1999</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2927,22 +2943,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ê Đê</t>
+          <t>Hrê</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0886668827</t>
+          <t>0790669547</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2962,22 +2978,22 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Đặng Vũ Đức</t>
+          <t>Bùi Quách Đức</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/04/1972</t>
+          <t>11/30/1986</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0886156284</t>
+          <t>0334635614</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
+          <t>Nhà báo</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3003,47 +3019,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phí Đức</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/26/2006</t>
+          <t>12/10/2002</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0817598651</t>
+          <t>0946598025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3067,22 +3083,22 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Bùi Hà Văn</t>
+          <t>Dương Nghiêm Hồng</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/02/1975</t>
+          <t>02/28/1991</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0701529368</t>
+          <t>0943274649</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Kiến trúc sư phần mềm</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3104,22 +3120,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tôn Thị</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/28/2006</t>
+          <t>02/07/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3129,22 +3145,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0922455912</t>
+          <t>0799358847</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Ninh Bình</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3154,7 +3170,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3164,28 +3180,44 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mai Chu Thành</t>
+          <t>Vũ Thạch Văn</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/17/1980</t>
+          <t>02/03/1994</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0947772896</t>
+          <t>0307677147</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Trần Từ Hồng</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>02/21/1978</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0318242943</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -3205,22 +3237,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hứa Văn</t>
+          <t>Phan Văn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2003</t>
+          <t>06/25/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3230,17 +3262,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0894048219</t>
+          <t>0352536956</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3255,7 +3287,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3265,44 +3297,28 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Phạm Huỳnh Thị</t>
+          <t>Phạm Quách Hồng</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/22/1969</t>
+          <t>04/10/1961</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0832223724</t>
+          <t>0799452082</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Dương Lê Thị</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>07/17/1992</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0328192653</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -3322,12 +3338,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thi Hữu</t>
+          <t>Nghiêm Thành</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3337,7 +3353,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/12/1999</t>
+          <t>05/19/2004</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3347,63 +3363,63 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0386575444</t>
+          <t>0394399672</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Mai Thạch Đức</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>03/09/1988</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0995591505</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Mai Ngô Văn</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>10/27/1979</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0329314963</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3423,47 +3439,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tiêu Quốc</t>
+          <t>Sơn Văn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>05/11/2000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0970012688</t>
+          <t>0824863917</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Hưng Yên</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3473,7 +3489,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3483,44 +3499,28 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mai Hứa Hồng</t>
+          <t>Lê Khương Thành</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/19/1973</t>
+          <t>12/24/1965</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0878797571</t>
+          <t>0947258153</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Lê Nghiêm Hồng</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>05/12/1964</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0818000224</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Kiến trúc sư</t>
-        </is>
-      </c>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -3540,88 +3540,88 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trịnh Quốc</t>
+          <t>Thi Thành</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/27/2000</t>
+          <t>06/26/2004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Mường</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>10/17/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0317946814</t>
+          <t>0305293446</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Lâm Đồng</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Mai Vương Thành</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>01/05/1985</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0315977127</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Phạm Đào Quốc</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>03/20/1979</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0751100140</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3641,47 +3641,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Vương Quốc</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/09/2003</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0878014355</t>
+          <t>0851285552</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3691,42 +3691,42 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Phạm Đỗ Hữu</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>08/24/1967</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0745373247</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Hoàng Tôn Đức</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>06/05/1965</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0358353653</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3742,47 +3742,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Vũ Quốc</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/15/2003</t>
+          <t>07/24/2004</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0703969291</t>
+          <t>0353072609</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Thái Nguyên</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3802,17 +3802,17 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Vũ Võ Thành</t>
+          <t>Phạm Quách Văn</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/10/1965</t>
+          <t>09/15/1988</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0969593684</t>
+          <t>0807891446</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3822,17 +3822,17 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Đình</t>
+          <t>Trần Sơn Minh</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/04/1954</t>
+          <t>11/24/1990</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0702337977</t>
+          <t>0775651755</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3859,22 +3859,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phí Hồng</t>
+          <t>Quách Đình</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/19/2005</t>
+          <t>12/29/1998</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3884,77 +3884,61 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>10/22/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0962777942</t>
+          <t>0328413282</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Nguyễn Tô Hồng</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>05/19/1962</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0873842667</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Trần Tôn Quốc</t>
+          <t>Phạm Mai Thị</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>10/30/1965</t>
+          <t>09/07/1993</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0877505963</t>
+          <t>0319508184</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -3976,22 +3960,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hoàng Thành</t>
+          <t>Phí Văn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/17/1998</t>
+          <t>05/02/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4001,27 +3985,27 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0726824687</t>
+          <t>0396957297</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Gia Lai</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4031,37 +4015,37 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Vũ Uông Hồng</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>08/03/1954</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0758668307</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Hoàng Quách Hồng</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>01/02/1976</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0829476463</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4077,27 +4061,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Uông Hữu</t>
+          <t>Tiêu Minh</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/11/2002</t>
+          <t>12/16/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4107,62 +4091,78 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0981161964</t>
+          <t>0339666800</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Đắk Lắk</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Lê Chu Hồng</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>06/04/1955</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>0861250897</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Mai Đoàn Quốc</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>05/04/1958</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0995080467</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Bùi Sơn Quốc</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>09/11/1981</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0903060528</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4178,52 +4178,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Đinh Đức</t>
+          <t>Vương Quốc</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/13/1998</t>
+          <t>06/13/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0939483528</t>
+          <t>0973482085</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4233,37 +4233,37 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Nguyễn Khương Hồng</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>09/21/1960</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0931315195</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Mai Quách Đình</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>03/01/1969</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>0939707645</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thạch Quốc</t>
+          <t>Đoàn Hữu</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/15/2003</t>
+          <t>04/08/2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4304,67 +4304,83 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10/12/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0852909407</t>
+          <t>0996703520</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Phú Thọ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Bùi Vương Hữu</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>08/06/1981</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0371172381</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Dương Khương Thành</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>03/11/1959</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0733715094</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Nguyễn Nghiêm Thị</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>05/13/1955</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0806644146</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Giảng viên</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4380,22 +4396,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vương Đình</t>
+          <t>Tạ Đức</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>09/24/1999</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4405,32 +4421,32 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Mường</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>09/29/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0750345429</t>
+          <t>0812624067</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Yên Bái</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4438,30 +4454,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Lê Chu Hữu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>10/02/1974</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>0918932069</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Vũ Bạch Thị</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>06/22/1954</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0389767407</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -4481,108 +4497,92 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trịnh Hữu</t>
+          <t>Quách Thị</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/19/2000</t>
+          <t>06/18/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Cơ Ho</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0396147103</t>
+          <t>0313156620</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Hoàng Đinh Hồng</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>01/25/1988</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0984301037</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Đặng Chu Đình</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>12/15/1958</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0767518097</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Trần Thi Đức</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>12/15/1983</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0949990277</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4598,108 +4598,92 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Huỳnh Văn</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/03/1998</t>
+          <t>03/14/2003</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/14/2024</t>
+          <t>10/18/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0323359860</t>
+          <t>0388439676</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Phú Thọ</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Dương Quách Thị</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>01/30/1985</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0950250804</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Bùi Uông Quốc</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>01/28/1975</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0789617950</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Dương Trần Hữu</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>07/11/1982</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0378840440</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4715,88 +4699,88 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A3</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Phạm Đức</t>
+          <t>Tôn Minh</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/30/1999</t>
+          <t>03/23/1999</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0771287529</t>
+          <t>0901747139</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Quảng Nam</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Phạm Đào Thành</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>01/29/1957</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0773629556</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Mai Tôn Minh</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>12/11/1974</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0734034055</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,22 +584,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hà Văn</t>
+          <t>Đinh Thành</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/19/2001</t>
+          <t>11/26/2000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -609,22 +609,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0795925675</t>
+          <t>0786832034</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Yên Bái</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -644,44 +644,28 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hoàng Nghiêm Quốc</t>
+          <t>Phạm Đào Đình</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>12/06/1989</t>
+          <t>02/15/1991</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0893620877</t>
+          <t>0872340275</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Phạm Nghiêm Minh</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>04/23/1980</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0721466600</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -701,108 +685,92 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tạ Đức</t>
+          <t>Đinh Hồng</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/31/2000</t>
+          <t>11/05/2002</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0368962160</t>
+          <t>0323491019</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Đắk Lắk</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Nguyễn Khương Hữu</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>08/20/1993</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0730750190</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Kỹ sư xây dựng</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Bùi Trịnh Hữu</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>01/25/1979</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0933284562</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Lê Vương Văn</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>02/27/1981</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0892988356</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -818,22 +786,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trịnh Văn</t>
+          <t>Tiêu Thị</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/26/1999</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -843,63 +811,63 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>M nông</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0756428690</t>
+          <t>0822254695</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Vũ Đoàn Minh</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>11/20/1975</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0877714666</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Lê Hà Hữu</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>03/14/1976</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0967390354</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -919,47 +887,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Đoàn Văn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/01/1999</t>
+          <t>05/29/2005</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10/13/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0737459350</t>
+          <t>0315875408</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -969,7 +937,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -979,44 +947,28 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Dương Khương Thị</t>
+          <t>Lê Đoàn Đình</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11/14/1967</t>
+          <t>09/25/1977</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0716605726</t>
+          <t>0388446182</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Hoàng Uông Hữu</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>08/09/1975</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0746900153</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
+          <t>Giảng viên</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1036,22 +988,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tiêu Đình</t>
+          <t>Đào Đức</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04/01/2006</t>
+          <t>08/09/2001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1061,22 +1013,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Chăm</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0831010220</t>
+          <t>0375383110</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1091,7 +1043,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -1104,22 +1056,22 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Vũ Khương Minh</t>
+          <t>Đặng Trương Thị</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>01/07/1993</t>
+          <t>04/17/1961</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0747633395</t>
+          <t>0742963362</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
+          <t>Nông dân</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1089,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Võ Hồng</t>
+          <t>Đào Đức</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/22/2003</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1162,67 +1114,83 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/08/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0378588526</t>
+          <t>0955525826</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Hà Nam</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Nguyễn Vương Đức</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>03/07/1990</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0803167014</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Hoàng Đinh Hữu</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12/26/1988</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0846656113</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Vũ Thi Thị</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>01/30/1992</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0369576669</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1238,22 +1206,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>05/11/1999</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1263,67 +1231,83 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10/20/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0397367560</t>
+          <t>0993781986</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Nghệ An</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Phạm Đinh Thị</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>11/26/1955</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0305588080</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Phạm Phùng Thị</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>09/15/1987</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0732336777</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Hồng</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>02/21/1965</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0964339352</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1339,47 +1323,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dương Văn</t>
+          <t>Từ Minh</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/21/2002</t>
+          <t>12/16/2002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/14/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0989677038</t>
+          <t>0734948985</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Cà Mau</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1389,7 +1373,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1399,44 +1383,28 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Vũ Đỗ Hữu</t>
+          <t>Phạm Ngô Hữu</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>03/14/1976</t>
+          <t>11/14/1981</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0308594777</t>
+          <t>0813585963</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Trần Hồ Hữu</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>06/05/1989</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0845774300</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1456,92 +1424,108 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trịnh Hữu</t>
+          <t>Đinh Văn</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11/07/2006</t>
+          <t>01/22/2000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>Kinh</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0801956746</t>
+          <t>0725779684</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Phạm Tô Hồng</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>03/09/1975</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0882190456</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Bùi Khương Thị</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>11/05/1967</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0348936866</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Y tá</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Vũ Đào Minh</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>01/08/1957</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0306046593</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1557,22 +1541,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Đinh Hồng</t>
+          <t>Nghiêm Thành</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2004</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1582,22 +1566,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0700524570</t>
+          <t>0707652971</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Thái Bình</t>
+          <t>Đà Nẵng</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1607,42 +1591,42 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Trần Thạch Văn</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>06/15/1966</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0732632127</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Lê Tôn Văn</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>03/01/1980</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0752876032</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Nhà thiết kế đồ họa</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1658,47 +1642,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tăng Văn</t>
+          <t>Bạch Hồng</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/09/2004</t>
+          <t>06/20/1999</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0864006947</t>
+          <t>0389603190</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Nam Định</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1718,42 +1702,42 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Nguyễn Bùi Hữu</t>
+          <t>Hoàng Trịnh Thị</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>04/20/1971</t>
+          <t>03/20/1977</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0334096494</t>
+          <t>0849513145</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Đặng Quách Minh</t>
+          <t>Phạm Đoàn Thị</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/30/1958</t>
+          <t>08/06/1965</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0395142707</t>
+          <t>0787700841</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Nhân viên ngân hàng</t>
+          <t>Y tá</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1775,22 +1759,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Từ Đình</t>
+          <t>Phùng Hữu</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/18/2003</t>
+          <t>04/17/2000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1800,67 +1784,83 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>La Ha</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10/22/2024</t>
+          <t>10/26/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0854721289</t>
+          <t>0884991245</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Sóc Trăng</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Mai Lương Quốc</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>05/15/1958</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0931665864</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lê Lương Quốc</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>11/27/1953</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0861474478</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Vũ Nghiêm Quốc</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>04/28/1971</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0343521933</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1876,22 +1876,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vũ Thành</t>
+          <t>Trịnh Minh</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/16/2005</t>
+          <t>10/07/2002</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1901,22 +1901,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/21/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0768075441</t>
+          <t>0399353113</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1936,42 +1936,42 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Phạm Đinh Đình</t>
+          <t>Lê Khương Đình</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/01/1988</t>
+          <t>09/24/1955</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0350985066</t>
+          <t>0930968211</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Thực tập sinh giáo dục</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Hoàng Hà Đức</t>
+          <t>Hoàng Bạch Đình</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>03/31/1954</t>
+          <t>06/04/1993</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0924841579</t>
+          <t>0888746858</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Nhân viên khách sạn</t>
+          <t>Nông dân</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1993,52 +1993,52 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Phạm Văn</t>
+          <t>Nghiêm Minh</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/31/2003</t>
+          <t>09/13/2005</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/13/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0735680722</t>
+          <t>0936340330</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>Bắc Kạn</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2048,37 +2048,37 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Đặng Bạch Hữu</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>04/17/1990</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0829253085</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Lê Phí Đức</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>03/21/1966</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0891782339</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Nhà tư vấn tài chính</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phùng Đình</t>
+          <t>Từ Minh</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/10/1998</t>
+          <t>06/16/2003</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2119,22 +2119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/25/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0793004404</t>
+          <t>0950783139</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>Tây Ninh</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2144,42 +2144,42 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Vũ Phạm Đức</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>03/11/1972</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0914276366</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Nguyễn Chu Thị</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>01/16/1986</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0967947876</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2195,22 +2195,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tôn Quốc</t>
+          <t>Hứa Thị</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/12/1999</t>
+          <t>12/14/1998</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2220,22 +2220,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0308019849</t>
+          <t>0389318998</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2263,22 +2263,22 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Bùi Đào Thành</t>
+          <t>Hoàng Trương Quốc</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>07/31/1984</t>
+          <t>04/17/1956</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0711564743</t>
+          <t>0905296417</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Kỹ sư phần mềm</t>
+          <t>Quản lý sản xuất</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2296,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chu Minh</t>
+          <t>Lương Hữu</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/28/2005</t>
+          <t>12/17/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2321,22 +2321,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tày</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0911966091</t>
+          <t>0802253991</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Quảng Ninh</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2356,28 +2356,44 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Dương Trịnh Hồng</t>
+          <t>Trần Trịnh Thành</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>04/12/1966</t>
+          <t>09/01/1977</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0877272117</t>
+          <t>0843967923</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Vũ Thạch Đức</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>01/04/1987</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0397503934</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2397,47 +2413,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vương Hữu</t>
+          <t>Vương Văn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/13/2002</t>
+          <t>06/05/2000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10/26/2024</t>
+          <t>11/08/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0767561442</t>
+          <t>0950674761</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Bình Dương</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2447,7 +2463,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2457,28 +2473,44 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Nguyễn Đinh Đình</t>
+          <t>Nguyễn Tạ Đình</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>04/24/1969</t>
+          <t>05/17/1988</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0752982607</t>
+          <t>0903045570</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Trần Trịnh Văn</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>01/28/1976</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0345383505</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Thợ xây</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -2498,22 +2530,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thạch Văn</t>
+          <t>Khương Quốc</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>10/24/2003</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2523,7 +2555,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>La Chí</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2533,53 +2565,53 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0870587578</t>
+          <t>0371030388</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Lê Đào Thành</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>07/27/1981</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0836847138</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Digital Marketer</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Lê Nghiêm Thành</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>03/14/1993</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0873071874</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2599,92 +2631,108 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trần Đình</t>
+          <t>Hà Văn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/17/2000</t>
+          <t>01/29/2004</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Giáy</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>11/10/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0780137895</t>
+          <t>0744959807</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ninh Bình</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Nguyễn Hà Hữu</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>02/25/1986</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0975585300</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Hoàng Khương Thị</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>09/24/1958</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0934353785</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Phạm Vương Văn</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>05/06/1962</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0930981372</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Chuyên viên bán hàng trực tuyến</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -2700,22 +2748,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phí Hồng</t>
+          <t>Thi Quốc</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>08/13/1999</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2725,22 +2773,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0776709326</t>
+          <t>0338336260</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Quảng Nam</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2750,7 +2798,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2760,44 +2808,28 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bùi Thạch Hữu</t>
+          <t>Dương Lương Quốc</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>08/27/1955</t>
+          <t>04/01/1983</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0307928177</t>
+          <t>0842317677</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Trưởng phòng kinh doanh</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Nguyễn Phùng Đức</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>06/13/1970</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0835550138</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
+          <t>Nhà phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2817,47 +2849,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ngô Quốc</t>
+          <t>Phạm Đình</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/18/2001</t>
+          <t>09/29/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10/11/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0356408605</t>
+          <t>0862589246</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2877,22 +2909,22 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bùi Thi Đức</t>
+          <t>Vũ Trịnh Văn</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>08/08/1977</t>
+          <t>04/11/1960</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0331868496</t>
+          <t>0947744296</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Nhân viên kinh doanh</t>
+          <t>Nhân Viên Bán Hàng</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2918,22 +2950,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đào Hồng</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/13/1999</t>
+          <t>05/04/2001</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2943,27 +2975,27 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hrê</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0790669547</t>
+          <t>0747766125</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2973,37 +3005,37 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Bùi Quách Đức</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>11/30/1986</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0334635614</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Nhà báo</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Bùi Chu Đức</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>07/30/1973</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0729446566</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3019,22 +3051,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Quách Quốc</t>
+          <t>Thạch Thành</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/10/2002</t>
+          <t>10/09/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3044,22 +3076,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0946598025</t>
+          <t>0320463209</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Đắk Lắk</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3083,22 +3115,22 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Dương Nghiêm Hồng</t>
+          <t>Trần Đoàn Đình</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/28/1991</t>
+          <t>05/08/1964</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0943274649</t>
+          <t>0831927599</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Nhà tư vấn tài chính</t>
+          <t>Tester</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3120,108 +3152,92 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Quách Thị</t>
+          <t>Quách Văn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/07/2005</t>
+          <t>05/18/2003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0799358847</t>
+          <t>0936650370</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Vũ Thạch Văn</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>02/03/1994</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0307677147</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Trần Từ Hồng</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>02/21/1978</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0318242943</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Đặng Đỗ Đức</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>12/02/1962</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>0390724367</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -3237,52 +3253,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phan Văn</t>
+          <t>Ngô Văn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/25/2006</t>
+          <t>11/02/2002</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/28/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0352536956</t>
+          <t>0943574384</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Cao Bằng</t>
+          <t>Khánh Hòa</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3292,37 +3308,37 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Phạm Quách Hồng</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>04/10/1961</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0799452082</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Bùi Chu Đức</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>01/19/1991</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>0714681387</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3338,22 +3354,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nghiêm Thành</t>
+          <t>Lý Đức</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/19/2004</t>
+          <t>04/25/1999</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3363,7 +3379,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3373,22 +3389,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0394399672</t>
+          <t>0948842682</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Long An</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3396,30 +3412,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Mai Ngô Văn</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>10/27/1979</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0329314963</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Kỹ sư sản xuất</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Hoàng Phí Đức</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>04/24/1974</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0859395518</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Nhân viên ngân hàng</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3439,52 +3455,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sơn Văn</t>
+          <t>Vũ Quốc</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/11/2000</t>
+          <t>11/10/2002</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0824863917</t>
+          <t>0725815957</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Hưng Yên</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3494,37 +3510,37 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Lê Khương Thành</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>12/24/1965</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0947258153</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Bùi Phí Thị</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>11/11/1959</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0753178817</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3540,52 +3556,52 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thi Thành</t>
+          <t>Tiêu Thành</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/26/2004</t>
+          <t>02/26/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mường</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10/17/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0305293446</t>
+          <t>0730552975</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Lai Châu</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3598,28 +3614,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Vũ Thi Đức</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>03/26/1977</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0809388781</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Nhân viên ngân hàng</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Phạm Đào Quốc</t>
+          <t>Lê Phí Quốc</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/20/1979</t>
+          <t>03/20/1989</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0751100140</t>
+          <t>0970724008</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -3641,57 +3673,57 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vương Quốc</t>
+          <t>Trịnh Thành</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/10/2005</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>10/28/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0851285552</t>
+          <t>0839022584</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3699,30 +3731,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Hoàng Tôn Đức</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>06/05/1965</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0358353653</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Đặng Quách Quốc</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/20/1993</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0980878296</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -3742,22 +3774,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vũ Quốc</t>
+          <t>Khương Đức</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/24/2004</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3767,22 +3799,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Nùng</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0353072609</t>
+          <t>0803827519</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3802,42 +3834,42 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Phạm Quách Văn</t>
+          <t>Nguyễn Sơn Thành</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>09/15/1988</t>
+          <t>08/20/1980</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0807891446</t>
+          <t>0375789527</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Y tá</t>
+          <t>Chuyên viên nhân sự</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Trần Sơn Minh</t>
+          <t>Hoàng Trịnh Quốc</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>11/24/1990</t>
+          <t>04/03/1966</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0775651755</t>
+          <t>0713131424</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3859,12 +3891,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Quách Đình</t>
+          <t>Sơn Minh</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3874,42 +3906,42 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/29/1998</t>
+          <t>10/30/1999</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10/22/2024</t>
+          <t>11/16/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0328413282</t>
+          <t>0990530307</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Gia Lai</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3917,30 +3949,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Phạm Mai Thị</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>09/07/1993</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0319508184</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Nghệ sĩ</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Mai Phùng Đình</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>09/30/1984</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0899839497</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -3960,92 +3992,108 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Phí Văn</t>
+          <t>Tiêu Văn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/02/2003</t>
+          <t>12/05/2001</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0396957297</t>
+          <t>0320225019</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Hoàng Quách Hồng</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>01/02/1976</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>0829476463</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Trần Sơn Hữu</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>03/22/1972</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0790548814</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Mai Vương Thành</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>03/06/1986</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0727333187</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Nhân viên khách sạn</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4061,108 +4109,92 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tiêu Minh</t>
+          <t>Khương Đức</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/16/2002</t>
+          <t>08/18/1999</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10/18/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0339666800</t>
+          <t>0702763864</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Đắk Lắk</t>
+          <t>Hà Nội</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Mai Đoàn Quốc</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>05/04/1958</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0995080467</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Kỹ sư xây dựng</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Bùi Sơn Quốc</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>09/11/1981</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0903060528</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>02/13/1985</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>0392688901</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4178,47 +4210,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Vương Quốc</t>
+          <t>Thạch Minh</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/13/2006</t>
+          <t>08/01/2002</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>Xơ Đăng</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>11/13/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0973482085</t>
+          <t>0762280457</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Cao Bằng</t>
+          <t>Thái Nguyên</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4228,42 +4260,42 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>Mai Quách Đình</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>03/01/1969</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>0939707645</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>Kỹ sư xây dựng</t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Nguyễn Thái Thành</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>09/19/1990</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0764822708</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -4279,22 +4311,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Đoàn Hữu</t>
+          <t>Từ Quốc</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/08/2003</t>
+          <t>02/03/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4304,77 +4336,61 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>La Ha</t>
+          <t>Gia Rai</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0996703520</t>
+          <t>0928735917</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Phú Thọ</t>
+          <t>Lai Châu</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Dương Khương Thành</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>03/11/1959</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0733715094</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Nguyễn Nghiêm Thị</t>
+          <t>Dương Trần Hữu</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>05/13/1955</t>
+          <t>04/13/1959</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0806644146</t>
+          <t>0759006618</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>Y tá</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -4396,22 +4412,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tạ Đức</t>
+          <t>Tôn Hồng</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/24/1999</t>
+          <t>03/09/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4421,27 +4437,27 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Giáy</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>10/27/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0812624067</t>
+          <t>0365153346</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>Bến Tre</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4451,37 +4467,37 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Vũ Bạch Thị</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>06/22/1954</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0389767407</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Phạm Phùng Hồng</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>11/03/1955</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0857238972</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Nhân viên ngân hàng</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -4497,92 +4513,108 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Quách Thị</t>
+          <t>Nghiêm Hữu</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/18/2000</t>
+          <t>05/09/2001</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>La Hu</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>10/26/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0313156620</t>
+          <t>0342230056</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Trần Thi Đức</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>12/15/1983</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>0949990277</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngô Minh</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>03/12/1980</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0366578539</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Luật sư</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Bùi Đinh Đình</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>03/05/1977</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0718110836</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4598,92 +4630,108 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Chu Đình</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03/14/2003</t>
+          <t>11/08/2001</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/18/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0388439676</t>
+          <t>0947391449</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Quảng Bình</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Dương Trần Hữu</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>07/11/1982</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>0378840440</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Lê Phí Hồng</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>07/04/1964</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0377231682</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Trần Quách Đức</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>01/22/1994</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0869481910</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4699,22 +4747,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A5</t>
+          <t>1A1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tôn Minh</t>
+          <t>Đinh Thành</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03/23/1999</t>
+          <t>04/19/2001</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4724,22 +4772,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Pu Ko</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>10/30/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0901747139</t>
+          <t>0793758887</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4749,42 +4797,42 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Mai Tôn Minh</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>12/11/1974</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0734034055</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Nguyễn Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>08/25/1969</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0704745170</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,88 +584,88 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Đinh Thành</t>
+          <t>Trịnh Minh</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/26/2000</t>
+          <t>01/27/2003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0786832034</t>
+          <t>0391964555</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Yên Bái</t>
+          <t>Kon Tum</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Phạm Đào Đình</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>02/15/1991</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0872340275</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lê Vương Quốc</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>09/21/1974</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0944791749</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Kiểm toán</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Đinh Hồng</t>
+          <t>Khương Đình</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/05/2002</t>
+          <t>11/30/1998</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Si La</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0323491019</t>
+          <t>0901089596</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Đắk Lắk</t>
+          <t>Hà Nội</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,42 +735,42 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Lê Vương Văn</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>02/27/1981</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0892988356</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dương Đinh Hữu</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>03/05/1978</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0955505514</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -786,22 +786,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tiêu Thị</t>
+          <t>Tiêu Hồng</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>02/16/2006</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>11/17/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0822254695</t>
+          <t>0916522789</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -836,42 +836,42 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Lê Hà Hữu</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>03/14/1976</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0967390354</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Luật sư</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Bùi Bùi Hữu</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>02/09/1985</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0332099862</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -887,22 +887,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Đoàn Văn</t>
+          <t>Thạch Quốc</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/29/2005</t>
+          <t>02/09/2004</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -912,22 +912,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0315875408</t>
+          <t>0350774095</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Lai Châu</t>
+          <t>Điện Biên</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -947,22 +947,22 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lê Đoàn Đình</t>
+          <t>Lê Ngô Đức</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/25/1977</t>
+          <t>04/06/1958</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0388446182</t>
+          <t>0795623275</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
+          <t>Biên dịch viên</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -988,22 +988,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đào Đức</t>
+          <t>Đặng Thị</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/09/2001</t>
+          <t>08/18/2004</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1013,67 +1013,83 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Chăm</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/21/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0375383110</t>
+          <t>0940145247</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Bình Thuận</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Đặng Trương Thị</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>04/17/1961</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0742963362</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Đặng Hứa Thị</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>08/19/1960</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0715584166</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Nông dân</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lê Đặng Thị</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>11/18/1967</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0958744723</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1089,22 +1105,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Đào Đức</t>
+          <t>Uông Hữu</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>05/13/2003</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1114,22 +1130,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11/08/2024</t>
+          <t>11/26/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0955525826</t>
+          <t>0365405382</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1139,7 +1155,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1149,44 +1165,28 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hoàng Đinh Hữu</t>
+          <t>Đặng Bạch Hữu</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/26/1988</t>
+          <t>07/23/1958</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0846656113</t>
+          <t>0700447616</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Giám đốc kinh doanh</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Vũ Thi Thị</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>01/30/1992</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0369576669</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
+          <t>Kế toán</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1206,47 +1206,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Đỗ Thành</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/11/1999</t>
+          <t>05/27/2002</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Gia Rai</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0993781986</t>
+          <t>0381336674</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Nghệ An</t>
+          <t>Hồ Chí Minh</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1266,44 +1266,28 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Phạm Phùng Thị</t>
+          <t>Hoàng Quách Hữu</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>09/15/1987</t>
+          <t>04/03/1954</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0732336777</t>
+          <t>0732501997</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Phạm Đinh Hồng</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>02/21/1965</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0964339352</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Kỹ sư nông nghiệp</t>
-        </is>
-      </c>
+          <t>Kỹ sư giám sát</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1323,42 +1307,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Từ Minh</t>
+          <t>Đặng Minh</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12/16/2002</t>
+          <t>04/21/2004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Cống</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11/14/2024</t>
+          <t>11/26/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0734948985</t>
+          <t>0386510478</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1373,7 +1357,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1383,28 +1367,44 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Phạm Ngô Hữu</t>
+          <t>Đặng Hứa Văn</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>11/14/1981</t>
+          <t>01/23/1964</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0813585963</t>
+          <t>0792961192</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Nhà thiết kế đồ họa</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+          <t>Nhà phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Phạm Đào Đức</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>12/11/1972</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0914425130</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Đinh Văn</t>
+          <t>Thi Đình</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/22/2000</t>
+          <t>03/01/2003</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Kinh</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1459,73 +1459,57 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0725779684</t>
+          <t>0782950610</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Phú Yên</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Bùi Khương Thị</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>11/05/1967</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0348936866</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Y tá</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Vũ Đào Minh</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>01/08/1957</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0306046593</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Giáo viên</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Trần Khương Quốc</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>10/13/1960</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0399191118</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1541,27 +1525,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nghiêm Thành</t>
+          <t>Phùng Thị</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>10/23/2006</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1571,17 +1555,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0707652971</t>
+          <t>0392804230</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Đà Nẵng</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1605,22 +1589,22 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Lê Tôn Văn</t>
+          <t>Nguyễn Sơn Văn</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>03/01/1980</t>
+          <t>09/14/1978</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0752876032</t>
+          <t>0912957835</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Nhà thiết kế đồ họa</t>
+          <t>Kỹ sư phần mềm</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1642,12 +1626,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bạch Hồng</t>
+          <t>Bạch Quốc</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1657,87 +1641,71 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/20/1999</t>
+          <t>03/26/1999</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0389603190</t>
+          <t>0995383028</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Hậu Giang</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Hoàng Trịnh Thị</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>03/20/1977</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0849513145</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Phạm Đoàn Thị</t>
+          <t>Vũ Ngô Thành</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>08/06/1965</t>
+          <t>12/27/1958</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0787700841</t>
+          <t>0764441692</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Y tá</t>
+          <t>Nhân viên hành chính</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1759,12 +1727,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phùng Hữu</t>
+          <t>Vương Đình</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1774,87 +1742,71 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>04/17/2000</t>
+          <t>04/07/2000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10/26/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0884991245</t>
+          <t>0716671623</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Sóc Trăng</t>
+          <t>Hòa Bình</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Lê Lương Quốc</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>11/27/1953</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0861474478</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Vũ Nghiêm Quốc</t>
+          <t>Hoàng Tôn Hồng</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/28/1971</t>
+          <t>08/10/1974</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0343521933</t>
+          <t>0755756827</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
+          <t>Giáo viên</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1876,108 +1828,92 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trịnh Minh</t>
+          <t>Nghiêm Hữu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/07/2002</t>
+          <t>03/21/2001</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11/21/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0399353113</t>
+          <t>0791757283</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Lê Khương Đình</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>09/24/1955</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0930968211</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Hoàng Bạch Đình</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>06/04/1993</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0888746858</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Trần Tiêu Đức</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>07/19/1969</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0823584099</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Quản lý sản xuất</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1993,22 +1929,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nghiêm Minh</t>
+          <t>Trương Đình</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/13/2005</t>
+          <t>05/29/2002</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2018,22 +1954,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11/13/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0936340330</t>
+          <t>0311092783</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Bắc Kạn</t>
+          <t>Thái Nguyên</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2043,7 +1979,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2053,17 +1989,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Đặng Bạch Hữu</t>
+          <t>Mai Hứa Minh</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>04/17/1990</t>
+          <t>09/14/1954</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0829253085</t>
+          <t>0756359535</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2071,10 +2007,26 @@
           <t>Chuyên viên tư vấn tuyển sinh</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Lê Trịnh Minh</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>03/24/1967</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0839596331</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -2094,47 +2046,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Từ Minh</t>
+          <t>Đinh Đình</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/16/2003</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10/25/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0950783139</t>
+          <t>0849072968</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tây Ninh</t>
+          <t>Bắc Giang</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2158,22 +2110,22 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Nguyễn Chu Thị</t>
+          <t>Dương Dương Đình</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/16/1986</t>
+          <t>08/03/1955</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0967947876</t>
+          <t>0862601813</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
+          <t>Chuyên viên bảo mật</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2195,22 +2147,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hứa Thị</t>
+          <t>Thạch Minh</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/14/1998</t>
+          <t>03/20/1999</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2220,22 +2172,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0389318998</t>
+          <t>0959830795</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Cà Mau</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2245,42 +2197,42 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Hoàng Trương Quốc</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>04/17/1956</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0905296417</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Hoàng Hà Đình</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>10/28/1994</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0327334478</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2296,22 +2248,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lương Hữu</t>
+          <t>Trịnh Đức</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/17/2005</t>
+          <t>03/25/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2321,22 +2273,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0802253991</t>
+          <t>0907402610</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Quảng Ninh</t>
+          <t>Hưng Yên</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2356,42 +2308,42 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Trần Trịnh Thành</t>
+          <t>Mai Trương Minh</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/01/1977</t>
+          <t>05/25/1961</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0843967923</t>
+          <t>0331888863</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Tester</t>
+          <t>Chuyên viên phân tích thị trường</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Vũ Thạch Đức</t>
+          <t>Lê Vương Quốc</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>01/04/1987</t>
+          <t>01/21/1970</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0397503934</t>
+          <t>0994369752</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
+          <t>Giáo viên</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2413,22 +2365,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vương Văn</t>
+          <t>Phí Hồng</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/05/2000</t>
+          <t>04/25/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2438,83 +2390,67 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>M nông</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11/08/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0950674761</t>
+          <t>0726247201</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Bình Dương</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Nguyễn Tạ Đình</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>05/17/1988</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0903045570</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Trần Trịnh Văn</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>01/28/1976</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0345383505</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Thợ xây</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Mai Đoàn Thành</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>01/16/1962</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0895952092</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2530,12 +2466,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Khương Quốc</t>
+          <t>Lương Minh</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2545,7 +2481,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/24/2003</t>
+          <t>02/01/1999</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2555,22 +2491,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>11/24/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0371030388</t>
+          <t>0316398160</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Tuyên Quang</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2580,42 +2516,42 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Lê Nghiêm Thành</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>03/14/1993</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0873071874</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Dương Thi Đức</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>08/24/1980</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0792620228</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -2631,102 +2567,86 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hà Văn</t>
+          <t>Tạ Đình</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/29/2004</t>
+          <t>05/01/2003</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11/10/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0744959807</t>
+          <t>0743470587</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Hoàng Khương Thị</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>09/24/1958</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0934353785</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Kỹ sư nông nghiệp</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Phạm Vương Văn</t>
+          <t>Trần Bùi Đình</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>05/06/1962</t>
+          <t>11/23/1963</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0930981372</t>
+          <t>0896617922</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Chuyên viên bán hàng trực tuyến</t>
+          <t>Biên dịch viên</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2748,12 +2668,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thi Quốc</t>
+          <t>Tôn Hồng</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2763,7 +2683,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/13/1999</t>
+          <t>11/18/2004</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2773,22 +2693,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0338336260</t>
+          <t>0776365439</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Quảng Nam</t>
+          <t>Bình Dương</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2798,7 +2718,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2808,28 +2728,44 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Dương Lương Quốc</t>
+          <t>Dương Trịnh Đình</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>04/01/1983</t>
+          <t>05/25/1961</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0842317677</t>
+          <t>0851725451</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Nhà phân tích dữ liệu</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+          <t>Kỹ sư xây dựng</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Phạm Uông Đức</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>05/13/1991</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0771883494</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2849,22 +2785,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phạm Đình</t>
+          <t>Đinh Quốc</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/29/2006</t>
+          <t>05/24/2000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2874,22 +2810,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>11/26/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0862589246</t>
+          <t>0744996378</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Sơn La</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2899,7 +2835,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2909,28 +2845,44 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Vũ Trịnh Văn</t>
+          <t>Bùi Tạ Hồng</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>04/11/1960</t>
+          <t>11/05/1982</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0947744296</t>
+          <t>0733802763</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Đặng Tôn Thành</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>04/13/1979</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0871672697</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2950,52 +2902,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Chu Văn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/04/2001</t>
+          <t>12/02/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0747766125</t>
+          <t>0704688890</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3005,37 +2957,37 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Phạm Thi Quốc</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>02/29/1972</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0797161202</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Bùi Chu Đức</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>07/30/1973</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>0729446566</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3051,22 +3003,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Thạch Thành</t>
+          <t>Thi Thị</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/09/2005</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3076,22 +3028,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>La Chi</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0320463209</t>
+          <t>0309285466</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Đắk Lắk</t>
+          <t>Hưng Yên</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3101,42 +3053,42 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Trần Đoàn Đình</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>05/08/1964</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0831927599</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Mai Tạ Minh</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>02/19/1987</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0901225865</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3152,22 +3104,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Quách Văn</t>
+          <t>Trịnh Đức</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/18/2003</t>
+          <t>07/08/2003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3177,27 +3129,27 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>La Chí</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/14/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0936650370</t>
+          <t>0829478425</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>Bình Định</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3207,37 +3159,37 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Phạm Phùng Văn</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>12/28/1968</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0942575269</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Đặng Đỗ Đức</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>12/02/1962</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>0390724367</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>Kỹ sư nông nghiệp</t>
-        </is>
-      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -3253,52 +3205,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ngô Văn</t>
+          <t>Tạ Quốc</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/02/2002</t>
+          <t>11/01/2000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0943574384</t>
+          <t>0362003677</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Khánh Hòa</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3308,37 +3260,37 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Lê Thạch Thị</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>04/04/1986</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0734892426</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Nhân Viên Bán Hàng</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Bùi Chu Đức</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>01/19/1991</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0714681387</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3354,88 +3306,88 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lý Đức</t>
+          <t>Phùng Minh</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/25/1999</t>
+          <t>07/01/2003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>La Hủ</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/13/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0948842682</t>
+          <t>0763924429</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Hoàng Phí Đức</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>04/24/1974</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0859395518</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Nhân viên ngân hàng</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dương Đỗ Thành</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>09/10/1970</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0828231577</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3455,22 +3407,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vũ Quốc</t>
+          <t>Hứa Quốc</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/10/2002</t>
+          <t>07/14/2000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3480,22 +3432,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/24/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0725815957</t>
+          <t>0807651872</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Thừa Thiên Huế</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3505,42 +3457,42 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Bùi Phí Thị</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>11/11/1959</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>0753178817</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Vũ Tiêu Thành</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>01/22/1989</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0760712194</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3556,12 +3508,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tiêu Thành</t>
+          <t>Phí Đức</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3571,32 +3523,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/26/2003</t>
+          <t>05/23/2005</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0730552975</t>
+          <t>0741330093</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3606,7 +3558,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3616,17 +3568,17 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Vũ Thi Đức</t>
+          <t>Đặng Hà Minh</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/26/1977</t>
+          <t>02/27/1973</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0809388781</t>
+          <t>0968100366</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3634,26 +3586,10 @@
           <t>Nhân viên ngân hàng</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Lê Phí Quốc</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>03/20/1989</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0970724008</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3673,52 +3609,52 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trịnh Thành</t>
+          <t>Từ Đình</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>06/05/2000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10/28/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0839022584</t>
+          <t>0700178152</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Lai Châu</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3728,37 +3664,37 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Đặng Quách Quốc</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>03/20/1993</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0980878296</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Vũ Chu Quốc</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>11/11/1978</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0939210424</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Y tá</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3774,22 +3710,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Khương Đức</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>04/10/2005</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3799,22 +3735,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/16/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0803827519</t>
+          <t>0823461442</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3824,7 +3760,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3834,44 +3770,28 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Nguyễn Sơn Thành</t>
+          <t>Phạm Khương Văn</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/20/1980</t>
+          <t>12/12/1963</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0375789527</t>
+          <t>0896744799</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Chuyên viên nhân sự</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Hoàng Trịnh Quốc</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>04/03/1966</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0713131424</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
+          <t>Thực tập sinh giáo dục</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -3891,22 +3811,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sơn Minh</t>
+          <t>Thi Văn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/30/1999</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3916,22 +3836,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Khmer</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11/16/2024</t>
+          <t>11/26/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0990530307</t>
+          <t>0774309160</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3941,7 +3861,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3951,28 +3871,44 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Mai Phùng Đình</t>
+          <t>Dương Từ Minh</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>09/30/1984</t>
+          <t>08/29/1966</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0899839497</t>
+          <t>0313210743</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Nguyễn Bùi Hữu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>05/20/1980</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0948030624</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Biên dịch viên</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -3992,22 +3928,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tiêu Văn</t>
+          <t>Thi Thị</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/05/2001</t>
+          <t>08/29/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4017,22 +3953,22 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0320225019</t>
+          <t>0771153918</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Trà Vinh</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4042,7 +3978,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4052,44 +3988,28 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Trần Sơn Hữu</t>
+          <t>Nguyễn Tôn Thị</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/22/1972</t>
+          <t>05/11/1982</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0790548814</t>
+          <t>0396653166</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Mai Vương Thành</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>03/06/1986</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0727333187</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Nhân viên khách sạn</t>
-        </is>
-      </c>
+          <t>Lập trình viên</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -4109,47 +4029,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Khương Đức</t>
+          <t>Trịnh Đình</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/18/1999</t>
+          <t>07/17/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0702763864</t>
+          <t>0733724144</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Hà Nội</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4177,22 +4097,22 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Nguyễn Trịnh Minh</t>
+          <t>Nguyễn Tôn Đức</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>02/13/1985</t>
+          <t>11/07/1987</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0392688901</t>
+          <t>0837195159</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Kỹ sư sản xuất</t>
+          <t>Tester</t>
         </is>
       </c>
     </row>
@@ -4210,57 +4130,57 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Thạch Minh</t>
+          <t>Chu Đình</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/01/2002</t>
+          <t>05/17/2004</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Xơ Đăng</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11/13/2024</t>
+          <t>11/15/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0762280457</t>
+          <t>0320089113</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4268,30 +4188,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Nguyễn Thái Thành</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>09/19/1990</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0764822708</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Mai Thạch Hồng</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08/27/1960</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0786413893</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Thư ký pháp lý</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -4311,47 +4231,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Từ Quốc</t>
+          <t>Thạch Đình</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/03/2005</t>
+          <t>02/17/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Gia Rai</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0928735917</t>
+          <t>0775623658</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Lai Châu</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4361,42 +4281,42 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Dương Trần Hữu</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>04/13/1959</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0759006618</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Y tá</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Mai Phí Minh</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>11/29/1975</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0713657660</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Kiểm toán</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4412,22 +4332,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tôn Hồng</t>
+          <t>Trần Hữu</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/09/2004</t>
+          <t>06/14/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4437,22 +4357,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Giáy</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10/27/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0365153346</t>
+          <t>0780857108</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Bến Tre</t>
+          <t>Bình Dương</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4462,42 +4382,42 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Phạm Phùng Hồng</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>11/03/1955</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>0857238972</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>Nhân viên ngân hàng</t>
-        </is>
-      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Bùi Đinh Thị</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>10/30/1960</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0700811056</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -4513,47 +4433,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nghiêm Hữu</t>
+          <t>Khương Đình</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/09/2001</t>
+          <t>12/19/2001</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>La Hu</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10/26/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0342230056</t>
+          <t>0996273865</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Kiên Giang</t>
+          <t>Điện Biên</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4573,42 +4493,42 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Minh</t>
+          <t>Bùi Thái Thành</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/12/1980</t>
+          <t>05/02/1976</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0366578539</t>
+          <t>0930183153</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Luật sư</t>
+          <t>Công nhân sản xuất</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Bùi Đinh Đình</t>
+          <t>Hoàng Vương Hữu</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/05/1977</t>
+          <t>04/21/1957</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0718110836</t>
+          <t>0700605846</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -4630,108 +4550,92 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chu Đình</t>
+          <t>Võ Quốc</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/08/2001</t>
+          <t>07/21/2004</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0947391449</t>
+          <t>0935143768</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Quảng Bình</t>
+          <t>Hà Giang</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Lê Phí Hồng</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>07/04/1964</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0377231682</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Trần Quách Đức</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>01/22/1994</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0869481910</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Phạm Tiêu Thị</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>03/05/1992</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0821835665</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4747,22 +4651,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A1</t>
+          <t>1A2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Đinh Thành</t>
+          <t>Tạ Thị</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/19/2001</t>
+          <t>09/04/2003</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4772,22 +4676,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Pu Ko</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10/30/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0793758887</t>
+          <t>0358461683</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4802,7 +4706,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -4815,22 +4719,22 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Nguyễn Trịnh Minh</t>
+          <t>Phạm Đào Thành</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>08/25/1969</t>
+          <t>05/03/1956</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>0704745170</t>
+          <t>0316371905</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Quản lý sản xuất</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
     </row>

--- a/mockupData_python/student_info_with_mockup.xlsx
+++ b/mockupData_python/student_info_with_mockup.xlsx
@@ -584,42 +584,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Trịnh Minh</t>
+          <t>Đỗ Đức</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/27/2003</t>
+          <t>08/27/2003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Ơ Đu</t>
+          <t>Brâu</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/23/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0391964555</t>
+          <t>0727986026</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -634,42 +634,42 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lê Vương Quốc</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>09/21/1974</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0944791749</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Vũ Thi Minh</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>03/14/1979</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0951026817</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -685,22 +685,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Khương Đình</t>
+          <t>Phùng Văn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/30/1998</t>
+          <t>12/10/2005</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Si La</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0901089596</t>
+          <t>0920468497</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Hà Nội</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -749,22 +749,22 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Dương Đinh Hữu</t>
+          <t>Hoàng Quách Văn</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>03/05/1978</t>
+          <t>06/03/1966</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0955505514</t>
+          <t>0833971488</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Giám đốc kinh doanh</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -786,22 +786,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tiêu Hồng</t>
+          <t>Sơn Hữu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>02/16/2006</t>
+          <t>08/15/2005</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rơ Măm</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11/17/2024</t>
+          <t>11/16/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0916522789</t>
+          <t>0783684655</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -841,37 +841,37 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Phạm Đinh Hồng</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>04/02/1977</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0301709859</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Digital Marketer</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Bùi Bùi Hữu</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>02/09/1985</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0332099862</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -887,22 +887,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thạch Quốc</t>
+          <t>Nghiêm Văn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/09/2004</t>
+          <t>11/20/2002</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -912,22 +912,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0350774095</t>
+          <t>0308320018</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -947,22 +947,22 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lê Ngô Đức</t>
+          <t>Vũ Thi Hồng</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>04/06/1958</t>
+          <t>07/10/1973</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0795623275</t>
+          <t>0389284067</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Biên dịch viên</t>
+          <t>Kỹ sư nông nghiệp</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -988,47 +988,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đặng Thị</t>
+          <t>Thi Minh</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/18/2004</t>
+          <t>08/30/2003</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11/21/2024</t>
+          <t>11/17/2024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0940145247</t>
+          <t>0824867229</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Ninh Thuận</t>
+          <t>Quảng Trị</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1048,44 +1048,28 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Đặng Hứa Thị</t>
+          <t>Bùi Thạch Thị</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>08/19/1960</t>
+          <t>01/31/1977</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0715584166</t>
+          <t>0829531574</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Nông dân</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Lê Đặng Thị</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>11/18/1967</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0958744723</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
-        </is>
-      </c>
+          <t>Nhân viên lễ tân</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1105,22 +1089,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Uông Hữu</t>
+          <t>Chu Văn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/13/2003</t>
+          <t>02/03/1999</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1130,63 +1114,63 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11/26/2024</t>
+          <t>11/10/2024</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0365405382</t>
+          <t>0841376666</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Trà Vinh</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Đặng Bạch Hữu</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>07/23/1958</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0700447616</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Kế toán</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Bùi Chu Đức</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>04/27/1970</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0802881903</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Y tá</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1206,22 +1190,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Đỗ Thành</t>
+          <t>Quách Quốc</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/27/2002</t>
+          <t>05/17/2004</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1231,63 +1215,63 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Gia Rai</t>
+          <t>Pà Thẻn</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0381336674</t>
+          <t>0328171489</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh</t>
+          <t>Bình Dương</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Hoàng Quách Hữu</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>04/03/1954</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0732501997</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Kỹ sư giám sát</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Trần Trương Văn</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>07/02/1973</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0894339535</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1307,108 +1291,92 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Đặng Minh</t>
+          <t>Nguyễn Minh</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04/21/2004</t>
+          <t>02/24/2006</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cống</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11/26/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0386510478</t>
+          <t>0923103670</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Hậu Giang</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Đặng Hứa Văn</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>01/23/1964</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0792961192</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Nhà phân tích dữ liệu</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Phạm Đào Đức</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>12/11/1972</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0914425130</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Công nhân sản xuất</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+          <t>Anh chị</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Vũ Trịnh Văn</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>01/13/1975</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0957182250</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Dược sĩ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1424,92 +1392,108 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Thi Đình</t>
+          <t>Trịnh Hồng</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03/01/2003</t>
+          <t>03/05/2006</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Thổ</t>
+          <t>Bố Y</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0782950610</t>
+          <t>0934933728</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Trần Khương Quốc</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>10/13/1960</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0399191118</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Chuyên viên bảo mật</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Đặng Phùng Văn</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>03/01/1985</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0824633155</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Kỹ sư phần mềm</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Hoàng Dương Thị</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>10/20/1991</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0319042868</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Giáo viên</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1525,22 +1509,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phùng Thị</t>
+          <t>Hứa Minh</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/23/2006</t>
+          <t>05/06/1999</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1550,7 +1534,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Cờ Lao</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1560,12 +1544,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0392804230</t>
+          <t>0954232124</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Thanh Hóa</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1575,42 +1559,42 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Nguyễn Sơn Văn</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>09/14/1978</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0912957835</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Kỹ sư phần mềm</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Dương Sơn Quốc</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>05/06/1985</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0772701227</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1626,42 +1610,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bạch Quốc</t>
+          <t>Từ Hồng</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03/26/1999</t>
+          <t>09/09/2005</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Chứt</t>
+          <t>Ơ Đu</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0995383028</t>
+          <t>0964794383</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1690,22 +1674,22 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Vũ Ngô Thành</t>
+          <t>Nguyễn Khương Thị</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/27/1958</t>
+          <t>07/16/1976</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0764441692</t>
+          <t>0959847932</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Nhân viên hành chính</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1727,47 +1711,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vương Đình</t>
+          <t>Trương Thành</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>04/07/2000</t>
+          <t>11/22/2004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Cờ Lao</t>
+          <t>La Ha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0716671623</t>
+          <t>0968241609</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Hòa Bình</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1791,22 +1775,22 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Hoàng Tôn Hồng</t>
+          <t>Trần Phí Thành</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>08/10/1974</t>
+          <t>03/19/1974</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0755756827</t>
+          <t>0759219083</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Giáo viên</t>
+          <t>Nghệ sĩ</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1828,22 +1812,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nghiêm Hữu</t>
+          <t>Khương Quốc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03/21/2001</t>
+          <t>03/22/2001</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1853,67 +1837,83 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>HMông</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0791757283</t>
+          <t>0858230100</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Quảng Ngãi</t>
+          <t>Đồng Nai</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Trần Tiêu Đức</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>07/19/1969</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0823584099</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Quản lý sản xuất</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngô Minh</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>04/11/1992</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0802491211</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Nghệ sĩ</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Vũ Tạ Hữu</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>06/12/1965</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0382697729</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1929,27 +1929,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Trương Đình</t>
+          <t>Phùng Thị</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/29/2002</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11/23/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0311092783</t>
+          <t>0317461386</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Thái Nguyên</t>
+          <t>Yên Bái</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1989,44 +1989,28 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Mai Hứa Minh</t>
+          <t>Phạm Sơn Hữu</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/14/1954</t>
+          <t>03/17/1982</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0756359535</t>
+          <t>0852342496</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Chuyên viên tư vấn tuyển sinh</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Lê Trịnh Minh</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>03/24/1967</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0839596331</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
+          <t>Chuyên viên nhân sự</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -2046,22 +2030,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Đinh Đình</t>
+          <t>Thạch Thị</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hoàng</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>01/22/1999</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2071,27 +2055,27 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0849072968</t>
+          <t>0306527270</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Bắc Giang</t>
+          <t>Hưng Yên</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2104,28 +2088,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Mai Phan Đình</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>03/28/1970</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0876597236</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Nông dân</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Dương Dương Đình</t>
+          <t>Lê Quách Văn</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>08/03/1955</t>
+          <t>05/17/1970</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0862601813</t>
+          <t>0858936579</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Chuyên viên bảo mật</t>
+          <t>Chuyên viên phân tích thị trường</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2147,22 +2147,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Thạch Minh</t>
+          <t>Thái Thành</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Phạm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/20/1999</t>
+          <t>10/18/2005</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0959830795</t>
+          <t>0996244538</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Cà Mau</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2197,42 +2197,42 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Anh chị</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Hoàng Hà Đình</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>10/28/1994</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0327334478</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Phạm Hứa Thành</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>07/04/1993</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0377158768</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2248,47 +2248,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trịnh Đức</t>
+          <t>Phạm Hồng</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/25/2005</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0907402610</t>
+          <t>0312716527</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Hưng Yên</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2308,42 +2308,42 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mai Trương Minh</t>
+          <t>Phạm Uông Minh</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>05/25/1961</t>
+          <t>10/23/1973</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0331888863</t>
+          <t>0701803429</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Chuyên viên phân tích thị trường</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Lê Vương Quốc</t>
+          <t>Nguyễn Trịnh Đình</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>01/21/1970</t>
+          <t>02/18/1969</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0994369752</t>
+          <t>0705927836</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Giáo viên</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2365,12 +2365,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phí Hồng</t>
+          <t>Đinh Thị</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/25/2006</t>
+          <t>01/24/1999</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2390,67 +2390,83 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>M nông</t>
+          <t>Khmer</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/29/2024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0726247201</t>
+          <t>0725161219</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Mai Đoàn Thành</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>01/16/1962</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0895952092</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Trần Tô Minh</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>05/26/1991</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0383622170</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Chuyên viên bán hàng trực tuyến</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Lê Phùng Quốc</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>04/12/1983</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0349853166</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Nhà báo</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2466,47 +2482,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lương Minh</t>
+          <t>Hứa Văn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/01/1999</t>
+          <t>06/11/2004</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ra Glai</t>
+          <t>Mường</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11/24/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0316398160</t>
+          <t>0859001522</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Tuyên Quang</t>
+          <t>Hải Phòng</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2516,42 +2532,42 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Ông bà</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Dương Thi Đức</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>08/24/1980</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0792620228</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Lê Từ Đình</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>07/11/1987</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0782460461</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -2567,57 +2583,57 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tạ Đình</t>
+          <t>Đào Đức</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/01/2003</t>
+          <t>01/15/1999</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Dao</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11/23/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0743470587</t>
+          <t>0901004991</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2625,30 +2641,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Trần Bùi Đình</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>11/23/1963</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0896617922</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Mai Bạch Đức</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>05/06/1983</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0929971700</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Nhân viên nhà hàng</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2668,47 +2684,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tôn Hồng</t>
+          <t>Sơn Hữu</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/18/2004</t>
+          <t>11/24/2005</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bố Y</t>
+          <t>Ra Glai</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/13/2024</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0776365439</t>
+          <t>0359895380</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Bình Dương</t>
+          <t>Bạc Liêu</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2718,7 +2734,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2728,44 +2744,28 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Dương Trịnh Đình</t>
+          <t>Mai Sơn Đức</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>05/25/1961</t>
+          <t>03/09/1985</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0851725451</t>
+          <t>0353233137</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Kỹ sư xây dựng</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Phạm Uông Đức</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>05/13/1991</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0771883494</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>UX/UI Designer</t>
-        </is>
-      </c>
+          <t>Tư vấn khách hàng</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2785,47 +2785,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Đinh Quốc</t>
+          <t>Uông Thị</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/24/2000</t>
+          <t>03/24/2000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Thổ</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11/26/2024</t>
+          <t>11/14/2024</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0744996378</t>
+          <t>0972464247</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Sơn La</t>
+          <t>Lào Cai</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2845,44 +2845,28 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bùi Tạ Hồng</t>
+          <t>Lê Tôn Hữu</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/05/1982</t>
+          <t>09/28/1968</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0733802763</t>
+          <t>0774183697</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Nhân viên lễ tân</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Đặng Tôn Thành</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>04/13/1979</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0871672697</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Thực Tập</t>
-        </is>
-      </c>
+          <t>Kỹ sư sản xuất</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2902,47 +2886,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chu Văn</t>
+          <t>Trịnh Văn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Phạm</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/02/2005</t>
+          <t>07/06/2000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ba Na</t>
+          <t>Phù Lá</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0704688890</t>
+          <t>0776163817</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Ninh Bình</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2952,7 +2936,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2962,28 +2946,44 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Phạm Thi Quốc</t>
+          <t>Bùi Đào Văn</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/29/1972</t>
+          <t>10/19/1984</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0797161202</t>
+          <t>0768535423</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+          <t>Trưởng phòng kinh doanh</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Vũ Đào Thị</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>03/02/1983</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0904552879</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -3003,47 +3003,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Thi Thị</t>
+          <t>Tiêu Hữu</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hoàng</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/27/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>La Chi</t>
+          <t>Brau</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11/18/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0309285466</t>
+          <t>0870264962</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Hưng Yên</t>
+          <t>Cần Thơ</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Ông bà</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -3071,22 +3071,22 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Mai Tạ Minh</t>
+          <t>Hoàng Uông Thành</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>02/19/1987</t>
+          <t>10/02/1973</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0901225865</t>
+          <t>0851979083</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Điều Dưỡng</t>
+          <t>Chuyên viên tư vấn tuyển sinh</t>
         </is>
       </c>
     </row>
@@ -3104,47 +3104,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trịnh Đức</t>
+          <t>Tạ Văn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Lê</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/08/2003</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>La Chí</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11/14/2024</t>
+          <t>11/26/2024</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0829478425</t>
+          <t>0829857492</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Bình Định</t>
+          <t>Gia Lai</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3164,22 +3164,22 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Phạm Phùng Văn</t>
+          <t>Mai Đinh Hữu</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12/28/1968</t>
+          <t>03/27/1973</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0942575269</t>
+          <t>0963576436</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Trưởng phòng kinh doanh</t>
+          <t>Thư ký pháp lý</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3205,88 +3205,88 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tạ Quốc</t>
+          <t>Đỗ Thị</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trần</t>
+          <t>Bùi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/01/2000</t>
+          <t>10/10/1999</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Brâu</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/24/2024</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0362003677</t>
+          <t>0806361171</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Đồng Nai</t>
+          <t>Thanh Hóa</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Lê Thạch Thị</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>04/04/1986</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0734892426</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Nhân Viên Bán Hàng</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Bùi Uông Minh</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>08/05/1959</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0808227062</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Kiểm toán</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -3306,22 +3306,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phùng Minh</t>
+          <t>Khương Quốc</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nguyễn</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/01/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3331,32 +3331,32 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>La Hủ</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11/13/2024</t>
+          <t>11/27/2024</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0763924429</t>
+          <t>0391429376</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Hà Tĩnh</t>
+          <t>Kiên Giang</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3364,30 +3364,30 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Dương Đỗ Thành</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>09/10/1970</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0828231577</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Nhân viên nhà hàng</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Dương Thạch Quốc</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>03/05/1990</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0796293213</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Nhân Viên Bán Hàng</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hứa Quốc</t>
+          <t>Phùng Hồng</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/14/2000</t>
+          <t>07/30/2001</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pà Thẻn</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11/24/2024</t>
+          <t>11/21/2024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0807651872</t>
+          <t>0817670482</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Bà Rịa - Vũng Tàu</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3457,42 +3457,42 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Họ hàng</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Vũ Tiêu Thành</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>01/22/1989</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0760712194</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Lê Từ Hữu</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>09/05/1982</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0349638524</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Chuyên viên tín dụng</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3508,32 +3508,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phí Đức</t>
+          <t>Tiêu Thành</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/23/2005</t>
+          <t>11/18/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Rơ Măm</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3543,53 +3543,53 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0741330093</t>
+          <t>0796814530</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc</t>
+          <t>Cao Bằng</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Đặng Hà Minh</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>02/27/1973</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0968100366</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Nhân viên ngân hàng</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Vũ Ngô Minh</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>08/23/1989</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0852140055</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Công nhân sản xuất</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3609,92 +3609,108 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Từ Đình</t>
+          <t>Từ Đức</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/05/2000</t>
+          <t>05/20/2001</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0700178152</t>
+          <t>0387746315</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Vĩnh Long</t>
+          <t>Long An</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Ông bà</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Vũ Chu Quốc</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>11/11/1978</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0939210424</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Y tá</t>
-        </is>
-      </c>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Mai Hà Hữu</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>02/11/1986</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0941119170</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Chuyên viên bảo mật</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dương Hà Hồng</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>08/09/1968</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0384553922</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Chuyên viên phân tích thị trường</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3710,22 +3726,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trịnh Hồng</t>
+          <t>Hứa Quốc</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nguyễn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/10/2005</t>
+          <t>12/29/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3735,63 +3751,63 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Dao</t>
+          <t>Ngái</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11/16/2024</t>
+          <t>11/23/2024</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0823461442</t>
+          <t>0910779667</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Quảng Trị</t>
+          <t>Ninh Bình</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Phạm Khương Văn</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>12/12/1963</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0896744799</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Thực tập sinh giáo dục</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Mai Bùi Thị</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>05/11/1957</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0775876414</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -3811,22 +3827,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Thi Văn</t>
+          <t>Võ Thị</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>02/03/1999</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3836,83 +3852,67 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ngái</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11/26/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0774309160</t>
+          <t>0822535708</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Cần Thơ</t>
+          <t>Bình Thuận</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Dương Từ Minh</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>08/29/1966</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0313210743</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Chuyên viên tín dụng</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Nguyễn Bùi Hữu</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>05/20/1980</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0948030624</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Biên dịch viên</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+          <t>Họ hàng</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Phạm Nghiêm Hồng</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>06/11/1989</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0340600921</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3928,52 +3928,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Thi Thị</t>
+          <t>Phạm Minh</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bùi</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/29/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Chứt</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>11/29/2024</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0771153918</t>
+          <t>0940504123</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Đắk Nông</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3983,37 +3983,37 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Không</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Nguyễn Tôn Thị</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>05/11/1982</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0396653166</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Lập trình viên</t>
-        </is>
-      </c>
+          <t>Ông bà</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Vũ Phí Minh</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>05/13/1954</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0935183436</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Thực Tập</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trịnh Đình</t>
+          <t>Phí Quốc</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4044,32 +4044,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/17/2006</t>
+          <t>05/05/2004</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lô Lô</t>
+          <t>Mảng</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0733724144</t>
+          <t>0921204186</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Hải Phòng</t>
+          <t>Đồng Tháp</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4079,42 +4079,42 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Anh chị</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Nguyễn Tôn Đức</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>11/07/1987</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>0837195159</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Nguyễn Từ Thành</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>03/24/1975</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0850933518</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Điều Dưỡng</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4130,22 +4130,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chu Đình</t>
+          <t>Nghiêm Hữu</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lê</t>
+          <t>Vũ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/17/2004</t>
+          <t>07/31/2004</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4155,63 +4155,63 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Khơ Mú</t>
+          <t>Ro Mam</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11/15/2024</t>
+          <t>11/27/2024</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0320089113</t>
+          <t>0743005505</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Ninh Thuận</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Không</t>
-        </is>
-      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>Không</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Mai Thạch Hồng</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>08/27/1960</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0786413893</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Thư ký pháp lý</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dương Thi Hữu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>08/01/1986</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0944737122</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -4231,47 +4231,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thạch Đình</t>
+          <t>Đinh Thành</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Trần</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/17/2005</t>
+          <t>10/05/2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>HMông</t>
+          <t>Khơ Mú</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11/23/2024</t>
+          <t>11/16/2024</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0775623658</t>
+          <t>0713624902</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Đồng Tháp</t>
+          <t>Vĩnh Long</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4281,42 +4281,42 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Mai Phí Minh</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>11/29/1975</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0713657660</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Kiểm toán</t>
-        </is>
-      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Trần Quách Hồng</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>03/22/1976</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0925821123</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Nhân viên hành chính</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4332,52 +4332,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trần Hữu</t>
+          <t>Phùng Đức</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/14/2000</t>
+          <t>12/28/2003</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Brau</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>11/24/2024</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0780857108</t>
+          <t>0764498532</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Bình Dương</t>
+          <t>Bình Định</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4390,28 +4390,44 @@
           <t>Không</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Mai Thạch Văn</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>04/17/1957</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0305215931</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Giám đốc kinh doanh</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Bùi Đinh Thị</t>
+          <t>Hoàng Tiêu Thành</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>10/30/1960</t>
+          <t>01/28/1992</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0700811056</t>
+          <t>0822143572</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Nhân viên nhà hàng</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -4433,22 +4449,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Khương Đình</t>
+          <t>Tạ Minh</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/19/2001</t>
+          <t>09/25/2003</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4458,22 +4474,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Mảng</t>
+          <t>Ba Na</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0996273865</t>
+          <t>0364430362</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Điện Biên</t>
+          <t>Hà Tĩnh</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4493,42 +4509,42 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bùi Thái Thành</t>
+          <t>Dương Thi Thành</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>05/02/1976</t>
+          <t>03/22/1966</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0930183153</t>
+          <t>0985008078</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Công nhân sản xuất</t>
+          <t>Nhà tư vấn tài chính</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Hoàng Vương Hữu</t>
+          <t>Lê Trịnh Hữu</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>04/21/1957</t>
+          <t>02/23/1976</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0700605846</t>
+          <t>0832453919</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Digital Marketer</t>
+          <t>Luật sư</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -4550,47 +4566,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Võ Quốc</t>
+          <t>Phí Đình</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vũ</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/21/2004</t>
+          <t>05/28/2001</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ro Mam</t>
+          <t>Lô Lô</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>11/23/2024</t>
+          <t>11/14/2024</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0935143768</t>
+          <t>0765197006</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Hà Giang</t>
+          <t>Phú Yên</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4600,42 +4616,42 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Họ hàng</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Phạm Tiêu Thị</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>03/05/1992</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>0821835665</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>Chuyên viên phân tích thị trường</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Hoàng Mai Quốc</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>05/29/1973</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0841175469</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Kỹ sư nông nghiệp</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -4651,12 +4667,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A2</t>
+          <t>1A5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tạ Thị</t>
+          <t>Thạch Hữu</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4666,7 +4682,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/04/2003</t>
+          <t>05/24/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4681,22 +4697,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>11/07/2024</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0358461683</t>
+          <t>0330835417</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Bạc Liêu</t>
+          <t>Quảng Ngãi</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4706,37 +4722,37 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Anh chị</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Hoàng Phùng Thị</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>05/11/1955</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0957159243</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>UX/UI Designer</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Phạm Đào Thành</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>05/03/1956</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>0316371905</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
